--- a/database/industries/folad/fejahan/product/monthly.xlsx
+++ b/database/industries/folad/fejahan/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87103653-7835-4C23-9B89-6E1DC80D6160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16C8627-18EE-4C2F-9EF1-4DF8E75E387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -742,12 +742,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -802,7 +802,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +971,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1462,113 +1462,113 @@
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
+      <c r="T11" s="11">
+        <v>0</v>
       </c>
       <c r="U11" s="11">
         <v>0</v>
       </c>
       <c r="V11" s="11">
-        <v>0</v>
+        <v>15506</v>
       </c>
       <c r="W11" s="11">
-        <v>15506</v>
+        <v>2230</v>
       </c>
       <c r="X11" s="11">
-        <v>2230</v>
+        <v>365</v>
       </c>
       <c r="Y11" s="11">
-        <v>365</v>
+        <v>18820</v>
       </c>
       <c r="Z11" s="11">
-        <v>18820</v>
+        <v>6824</v>
       </c>
       <c r="AA11" s="11">
-        <v>6824</v>
+        <v>7308</v>
       </c>
       <c r="AB11" s="11">
-        <v>7308</v>
+        <v>7869</v>
       </c>
       <c r="AC11" s="11">
-        <v>7869</v>
+        <v>9041</v>
       </c>
       <c r="AD11" s="11">
-        <v>9041</v>
+        <v>5260</v>
       </c>
       <c r="AE11" s="11">
-        <v>5260</v>
-      </c>
-      <c r="AF11" s="11">
         <v>6843</v>
       </c>
+      <c r="AF11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AG11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
+      <c r="AH11" s="11">
+        <v>2437</v>
       </c>
       <c r="AI11" s="11">
-        <v>2437</v>
+        <v>1577</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1577</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="11">
-        <v>0</v>
+        <v>46957</v>
       </c>
       <c r="AL11" s="11">
-        <v>46957</v>
+        <v>12803</v>
       </c>
       <c r="AM11" s="11">
-        <v>12803</v>
+        <v>18793</v>
       </c>
       <c r="AN11" s="11">
-        <v>18793</v>
+        <v>19482</v>
       </c>
       <c r="AO11" s="11">
-        <v>19482</v>
+        <v>28431</v>
       </c>
       <c r="AP11" s="11">
-        <v>28431</v>
+        <v>23352</v>
       </c>
       <c r="AQ11" s="11">
-        <v>23352</v>
+        <v>23252</v>
       </c>
       <c r="AR11" s="11">
-        <v>23252</v>
+        <v>22022</v>
       </c>
       <c r="AS11" s="11">
-        <v>22022</v>
+        <v>22635</v>
       </c>
       <c r="AT11" s="11">
-        <v>22635</v>
+        <v>15846</v>
       </c>
       <c r="AU11" s="11">
-        <v>15846</v>
+        <v>13840</v>
       </c>
       <c r="AV11" s="11">
-        <v>13840</v>
+        <v>13706</v>
       </c>
       <c r="AW11" s="11">
-        <v>13706</v>
+        <v>22522</v>
       </c>
       <c r="AX11" s="11">
-        <v>22522</v>
+        <v>20662</v>
       </c>
       <c r="AY11" s="11">
-        <v>20662</v>
+        <v>19947</v>
       </c>
       <c r="AZ11" s="11">
-        <v>19947</v>
+        <v>18443</v>
       </c>
       <c r="BA11" s="11">
-        <v>18443</v>
+        <v>16926</v>
       </c>
       <c r="BB11" s="11">
-        <v>16926</v>
+        <v>14582</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1621,113 +1621,113 @@
       <c r="S12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>57</v>
+      <c r="T12" s="13">
+        <v>84615</v>
       </c>
       <c r="U12" s="13">
-        <v>84615</v>
+        <v>85621</v>
       </c>
       <c r="V12" s="13">
-        <v>85621</v>
+        <v>87975</v>
       </c>
       <c r="W12" s="13">
-        <v>87975</v>
+        <v>87900</v>
       </c>
       <c r="X12" s="13">
-        <v>87900</v>
+        <v>84961</v>
       </c>
       <c r="Y12" s="13">
-        <v>84961</v>
+        <v>83615</v>
       </c>
       <c r="Z12" s="13">
-        <v>83615</v>
+        <v>38517</v>
       </c>
       <c r="AA12" s="13">
-        <v>38517</v>
+        <v>82555</v>
       </c>
       <c r="AB12" s="13">
-        <v>82555</v>
+        <v>77482</v>
       </c>
       <c r="AC12" s="13">
-        <v>77482</v>
+        <v>82250</v>
       </c>
       <c r="AD12" s="13">
-        <v>82250</v>
+        <v>81095</v>
       </c>
       <c r="AE12" s="13">
-        <v>81095</v>
+        <v>80947</v>
       </c>
       <c r="AF12" s="13">
-        <v>80947</v>
+        <v>85221</v>
       </c>
       <c r="AG12" s="13">
-        <v>85221</v>
+        <v>83307</v>
       </c>
       <c r="AH12" s="13">
-        <v>83307</v>
+        <v>86809</v>
       </c>
       <c r="AI12" s="13">
-        <v>86809</v>
+        <v>83191</v>
       </c>
       <c r="AJ12" s="13">
-        <v>83191</v>
+        <v>84438</v>
       </c>
       <c r="AK12" s="13">
-        <v>84438</v>
+        <v>86164</v>
       </c>
       <c r="AL12" s="13">
-        <v>86164</v>
+        <v>80332</v>
       </c>
       <c r="AM12" s="13">
-        <v>80332</v>
+        <v>80713</v>
       </c>
       <c r="AN12" s="13">
-        <v>80713</v>
+        <v>80300</v>
       </c>
       <c r="AO12" s="13">
-        <v>80300</v>
+        <v>53885</v>
       </c>
       <c r="AP12" s="13">
-        <v>53885</v>
+        <v>29389</v>
       </c>
       <c r="AQ12" s="13">
-        <v>29389</v>
+        <v>74303</v>
       </c>
       <c r="AR12" s="13">
-        <v>74303</v>
+        <v>82354</v>
       </c>
       <c r="AS12" s="13">
-        <v>82354</v>
+        <v>82632</v>
       </c>
       <c r="AT12" s="13">
-        <v>82632</v>
+        <v>86486</v>
       </c>
       <c r="AU12" s="13">
-        <v>86486</v>
+        <v>82979</v>
       </c>
       <c r="AV12" s="13">
-        <v>82979</v>
+        <v>85310</v>
       </c>
       <c r="AW12" s="13">
-        <v>85310</v>
+        <v>82722</v>
       </c>
       <c r="AX12" s="13">
-        <v>82722</v>
+        <v>81447</v>
       </c>
       <c r="AY12" s="13">
-        <v>81447</v>
+        <v>86523</v>
       </c>
       <c r="AZ12" s="13">
-        <v>86523</v>
+        <v>50803</v>
       </c>
       <c r="BA12" s="13">
-        <v>50803</v>
+        <v>49372</v>
       </c>
       <c r="BB12" s="13">
-        <v>49372</v>
+        <v>47928</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1780,113 +1780,113 @@
       <c r="S13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>57</v>
+      <c r="T13" s="11">
+        <v>47484</v>
       </c>
       <c r="U13" s="11">
-        <v>47484</v>
+        <v>72491</v>
       </c>
       <c r="V13" s="11">
-        <v>72491</v>
+        <v>73407</v>
       </c>
       <c r="W13" s="11">
-        <v>73407</v>
+        <v>73712</v>
       </c>
       <c r="X13" s="11">
-        <v>73712</v>
+        <v>75881</v>
       </c>
       <c r="Y13" s="11">
-        <v>75881</v>
+        <v>78146</v>
       </c>
       <c r="Z13" s="11">
-        <v>78146</v>
+        <v>76776</v>
       </c>
       <c r="AA13" s="11">
-        <v>76776</v>
+        <v>70133</v>
       </c>
       <c r="AB13" s="11">
-        <v>70133</v>
+        <v>68958</v>
       </c>
       <c r="AC13" s="11">
-        <v>68958</v>
+        <v>55399</v>
       </c>
       <c r="AD13" s="11">
-        <v>55399</v>
+        <v>80522</v>
       </c>
       <c r="AE13" s="11">
-        <v>80522</v>
+        <v>77868</v>
       </c>
       <c r="AF13" s="11">
-        <v>77868</v>
+        <v>80830</v>
       </c>
       <c r="AG13" s="11">
-        <v>80830</v>
+        <v>93247</v>
       </c>
       <c r="AH13" s="11">
-        <v>93247</v>
+        <v>88113</v>
       </c>
       <c r="AI13" s="11">
-        <v>88113</v>
+        <v>37949</v>
       </c>
       <c r="AJ13" s="11">
-        <v>37949</v>
+        <v>25456</v>
       </c>
       <c r="AK13" s="11">
-        <v>25456</v>
+        <v>58288</v>
       </c>
       <c r="AL13" s="11">
-        <v>58288</v>
+        <v>79559</v>
       </c>
       <c r="AM13" s="11">
-        <v>79559</v>
+        <v>85544</v>
       </c>
       <c r="AN13" s="11">
-        <v>85544</v>
+        <v>81082</v>
       </c>
       <c r="AO13" s="11">
-        <v>81082</v>
+        <v>85588</v>
       </c>
       <c r="AP13" s="11">
-        <v>85588</v>
+        <v>77102</v>
       </c>
       <c r="AQ13" s="11">
-        <v>77102</v>
+        <v>85472</v>
       </c>
       <c r="AR13" s="11">
-        <v>85472</v>
+        <v>88046</v>
       </c>
       <c r="AS13" s="11">
-        <v>88046</v>
+        <v>88227</v>
       </c>
       <c r="AT13" s="11">
-        <v>88227</v>
+        <v>49199</v>
       </c>
       <c r="AU13" s="11">
-        <v>49199</v>
+        <v>55778</v>
       </c>
       <c r="AV13" s="11">
-        <v>55778</v>
+        <v>58075</v>
       </c>
       <c r="AW13" s="11">
-        <v>58075</v>
+        <v>85562</v>
       </c>
       <c r="AX13" s="11">
-        <v>85562</v>
+        <v>84346</v>
       </c>
       <c r="AY13" s="11">
-        <v>84346</v>
+        <v>70319</v>
       </c>
       <c r="AZ13" s="11">
-        <v>70319</v>
+        <v>69304</v>
       </c>
       <c r="BA13" s="11">
-        <v>69304</v>
+        <v>64521</v>
       </c>
       <c r="BB13" s="11">
-        <v>64521</v>
+        <v>64560</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1942,110 +1942,110 @@
       <c r="T14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>57</v>
+      <c r="U14" s="13">
+        <v>1392</v>
       </c>
       <c r="V14" s="13">
-        <v>1392</v>
+        <v>1031</v>
       </c>
       <c r="W14" s="13">
-        <v>1031</v>
+        <v>1329</v>
       </c>
       <c r="X14" s="13">
-        <v>1329</v>
+        <v>1162</v>
       </c>
       <c r="Y14" s="13">
-        <v>1162</v>
+        <v>956</v>
       </c>
       <c r="Z14" s="13">
-        <v>956</v>
+        <v>217</v>
       </c>
       <c r="AA14" s="13">
-        <v>217</v>
+        <v>603</v>
       </c>
       <c r="AB14" s="13">
-        <v>603</v>
+        <v>1354</v>
       </c>
       <c r="AC14" s="13">
-        <v>1354</v>
+        <v>565</v>
       </c>
       <c r="AD14" s="13">
-        <v>565</v>
+        <v>914</v>
       </c>
       <c r="AE14" s="13">
-        <v>914</v>
+        <v>2524</v>
       </c>
       <c r="AF14" s="13">
-        <v>2524</v>
+        <v>463</v>
       </c>
       <c r="AG14" s="13">
-        <v>463</v>
+        <v>931</v>
       </c>
       <c r="AH14" s="13">
-        <v>931</v>
+        <v>1618</v>
       </c>
       <c r="AI14" s="13">
+        <v>834</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>382</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>1503</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>1217</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>1513</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>1920</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>1627</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>1440</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>2190</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>2035</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>2016</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>1234</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>3149</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>2786</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>4405</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>1500</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>1903</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>3448</v>
+      </c>
+      <c r="BA14" s="13">
         <v>1618</v>
       </c>
-      <c r="AJ14" s="13">
-        <v>834</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>382</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>1503</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>1217</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>1513</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>1920</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>1627</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>1440</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>2190</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>2035</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>2016</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>1234</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>3149</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>2786</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>4405</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>1500</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>1903</v>
-      </c>
-      <c r="BA14" s="13">
-        <v>3448</v>
-      </c>
       <c r="BB14" s="13">
-        <v>1618</v>
+        <v>1476</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2098,113 +2098,113 @@
       <c r="S15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>57</v>
+      <c r="T15" s="11">
+        <v>10400</v>
       </c>
       <c r="U15" s="11">
-        <v>10400</v>
+        <v>24050</v>
       </c>
       <c r="V15" s="11">
-        <v>24050</v>
+        <v>38574</v>
       </c>
       <c r="W15" s="11">
-        <v>38574</v>
+        <v>23116</v>
       </c>
       <c r="X15" s="11">
-        <v>23116</v>
+        <v>29332</v>
       </c>
       <c r="Y15" s="11">
-        <v>29332</v>
+        <v>29478</v>
       </c>
       <c r="Z15" s="11">
-        <v>29478</v>
+        <v>38801</v>
       </c>
       <c r="AA15" s="11">
-        <v>38801</v>
+        <v>32009</v>
       </c>
       <c r="AB15" s="11">
-        <v>32009</v>
+        <v>8281</v>
       </c>
       <c r="AC15" s="11">
-        <v>8281</v>
+        <v>15808</v>
       </c>
       <c r="AD15" s="11">
-        <v>15808</v>
+        <v>29250</v>
       </c>
       <c r="AE15" s="11">
-        <v>29250</v>
+        <v>11908</v>
       </c>
       <c r="AF15" s="11">
-        <v>11908</v>
+        <v>34563</v>
       </c>
       <c r="AG15" s="11">
-        <v>34563</v>
+        <v>12810</v>
       </c>
       <c r="AH15" s="11">
-        <v>12810</v>
+        <v>12532</v>
       </c>
       <c r="AI15" s="11">
-        <v>12532</v>
+        <v>12584</v>
       </c>
       <c r="AJ15" s="11">
-        <v>12584</v>
+        <v>29771</v>
       </c>
       <c r="AK15" s="11">
-        <v>29771</v>
+        <v>32409</v>
       </c>
       <c r="AL15" s="11">
-        <v>32409</v>
+        <v>14300</v>
       </c>
       <c r="AM15" s="11">
-        <v>14300</v>
+        <v>33616</v>
       </c>
       <c r="AN15" s="11">
-        <v>33616</v>
+        <v>30457</v>
       </c>
       <c r="AO15" s="11">
-        <v>30457</v>
+        <v>13263</v>
       </c>
       <c r="AP15" s="11">
-        <v>13263</v>
+        <v>29919</v>
       </c>
       <c r="AQ15" s="11">
-        <v>29919</v>
+        <v>4278</v>
       </c>
       <c r="AR15" s="11">
-        <v>4278</v>
+        <v>20865</v>
       </c>
       <c r="AS15" s="11">
-        <v>20865</v>
+        <v>40515</v>
       </c>
       <c r="AT15" s="11">
-        <v>40515</v>
+        <v>32398</v>
       </c>
       <c r="AU15" s="11">
-        <v>32398</v>
+        <v>28980</v>
       </c>
       <c r="AV15" s="11">
-        <v>28980</v>
+        <v>33839</v>
       </c>
       <c r="AW15" s="11">
-        <v>33839</v>
+        <v>33900</v>
       </c>
       <c r="AX15" s="11">
-        <v>33900</v>
+        <v>34276</v>
       </c>
       <c r="AY15" s="11">
-        <v>34276</v>
+        <v>13737</v>
       </c>
       <c r="AZ15" s="11">
-        <v>13737</v>
+        <v>17875</v>
       </c>
       <c r="BA15" s="11">
-        <v>17875</v>
+        <v>26873</v>
       </c>
       <c r="BB15" s="11">
-        <v>26873</v>
+        <v>28168</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2278,92 +2278,92 @@
       <c r="Z16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA16" s="13" t="s">
-        <v>57</v>
+      <c r="AA16" s="13">
+        <v>181</v>
       </c>
       <c r="AB16" s="13">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="AC16" s="13">
-        <v>51</v>
+        <v>6824</v>
       </c>
       <c r="AD16" s="13">
-        <v>6824</v>
+        <v>101</v>
       </c>
       <c r="AE16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AF16" s="13">
         <v>13854</v>
       </c>
+      <c r="AF16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH16" s="13" t="s">
-        <v>57</v>
+      <c r="AH16" s="13">
+        <v>806</v>
       </c>
       <c r="AI16" s="13">
-        <v>806</v>
+        <v>2580</v>
       </c>
       <c r="AJ16" s="13">
-        <v>2580</v>
+        <v>2290</v>
       </c>
       <c r="AK16" s="13">
-        <v>2290</v>
+        <v>2628</v>
       </c>
       <c r="AL16" s="13">
-        <v>2628</v>
+        <v>234</v>
       </c>
       <c r="AM16" s="13">
-        <v>234</v>
+        <v>4805</v>
       </c>
       <c r="AN16" s="13">
-        <v>4805</v>
+        <v>5304</v>
       </c>
       <c r="AO16" s="13">
-        <v>5304</v>
+        <v>5061</v>
       </c>
       <c r="AP16" s="13">
-        <v>5061</v>
+        <v>5381</v>
       </c>
       <c r="AQ16" s="13">
-        <v>5381</v>
+        <v>5440</v>
       </c>
       <c r="AR16" s="13">
-        <v>5440</v>
+        <v>6142</v>
       </c>
       <c r="AS16" s="13">
-        <v>6142</v>
+        <v>6934</v>
       </c>
       <c r="AT16" s="13">
-        <v>6934</v>
+        <v>4163</v>
       </c>
       <c r="AU16" s="13">
-        <v>4163</v>
+        <v>4695</v>
       </c>
       <c r="AV16" s="13">
-        <v>4695</v>
+        <v>5554</v>
       </c>
       <c r="AW16" s="13">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AX16" s="13">
-        <v>6887</v>
+        <v>6745</v>
       </c>
       <c r="AY16" s="13">
-        <v>6745</v>
+        <v>5301</v>
       </c>
       <c r="AZ16" s="13">
-        <v>5301</v>
+        <v>4833</v>
       </c>
       <c r="BA16" s="13">
-        <v>4833</v>
+        <v>3283</v>
       </c>
       <c r="BB16" s="13">
-        <v>3283</v>
+        <v>3727</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2422,44 +2422,44 @@
       <c r="U17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>57</v>
+      <c r="V17" s="11">
+        <v>6080</v>
       </c>
       <c r="W17" s="11">
-        <v>6080</v>
+        <v>0</v>
       </c>
       <c r="X17" s="11">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="Y17" s="11">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="AA17" s="11">
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="AB17" s="11">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="AC17" s="11">
-        <v>760</v>
+        <v>240</v>
       </c>
       <c r="AD17" s="11">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>57</v>
+      <c r="AH17" s="11">
+        <v>0</v>
       </c>
       <c r="AI17" s="11">
         <v>0</v>
@@ -2468,61 +2468,61 @@
         <v>0</v>
       </c>
       <c r="AK17" s="11">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="AL17" s="11">
-        <v>1230</v>
+        <v>402</v>
       </c>
       <c r="AM17" s="11">
-        <v>402</v>
+        <v>1359</v>
       </c>
       <c r="AN17" s="11">
-        <v>1359</v>
+        <v>780</v>
       </c>
       <c r="AO17" s="11">
-        <v>780</v>
+        <v>913</v>
       </c>
       <c r="AP17" s="11">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="AQ17" s="11">
-        <v>930</v>
+        <v>771</v>
       </c>
       <c r="AR17" s="11">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="AS17" s="11">
-        <v>717</v>
+        <v>997</v>
       </c>
       <c r="AT17" s="11">
-        <v>997</v>
+        <v>405</v>
       </c>
       <c r="AU17" s="11">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AV17" s="11">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="AW17" s="11">
-        <v>463</v>
+        <v>864</v>
       </c>
       <c r="AX17" s="11">
-        <v>864</v>
+        <v>991</v>
       </c>
       <c r="AY17" s="11">
-        <v>991</v>
+        <v>1369</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1369</v>
+        <v>1239</v>
       </c>
       <c r="BA17" s="11">
-        <v>1239</v>
+        <v>819</v>
       </c>
       <c r="BB17" s="11">
-        <v>819</v>
+        <v>985</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2581,107 +2581,107 @@
       <c r="U18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="13" t="s">
-        <v>57</v>
+      <c r="V18" s="13">
+        <v>9400</v>
       </c>
       <c r="W18" s="13">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="X18" s="13">
         <v>0</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>5031</v>
       </c>
       <c r="Z18" s="13">
-        <v>5031</v>
+        <v>1614</v>
       </c>
       <c r="AA18" s="13">
-        <v>1614</v>
+        <v>2246</v>
       </c>
       <c r="AB18" s="13">
-        <v>2246</v>
+        <v>5168</v>
       </c>
       <c r="AC18" s="13">
-        <v>5168</v>
+        <v>1819</v>
       </c>
       <c r="AD18" s="13">
-        <v>1819</v>
+        <v>523</v>
       </c>
       <c r="AE18" s="13">
-        <v>523</v>
+        <v>2405</v>
       </c>
       <c r="AF18" s="13">
-        <v>2405</v>
+        <v>491</v>
       </c>
       <c r="AG18" s="13">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="13">
-        <v>0</v>
+        <v>2398</v>
       </c>
       <c r="AI18" s="13">
-        <v>2398</v>
+        <v>3466</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3466</v>
+        <v>1487</v>
       </c>
       <c r="AK18" s="13">
-        <v>1487</v>
+        <v>3500</v>
       </c>
       <c r="AL18" s="13">
-        <v>3500</v>
+        <v>2568</v>
       </c>
       <c r="AM18" s="13">
-        <v>2568</v>
+        <v>3149</v>
       </c>
       <c r="AN18" s="13">
-        <v>3149</v>
+        <v>2858</v>
       </c>
       <c r="AO18" s="13">
-        <v>2858</v>
+        <v>2807</v>
       </c>
       <c r="AP18" s="13">
-        <v>2807</v>
+        <v>2274</v>
       </c>
       <c r="AQ18" s="13">
-        <v>2274</v>
+        <v>6566</v>
       </c>
       <c r="AR18" s="13">
-        <v>6566</v>
+        <v>4123</v>
       </c>
       <c r="AS18" s="13">
-        <v>4123</v>
+        <v>4472</v>
       </c>
       <c r="AT18" s="13">
-        <v>4472</v>
+        <v>3144</v>
       </c>
       <c r="AU18" s="13">
-        <v>3144</v>
+        <v>3531</v>
       </c>
       <c r="AV18" s="13">
-        <v>3531</v>
+        <v>2895</v>
       </c>
       <c r="AW18" s="13">
-        <v>2895</v>
+        <v>4511</v>
       </c>
       <c r="AX18" s="13">
-        <v>4511</v>
+        <v>3725</v>
       </c>
       <c r="AY18" s="13">
-        <v>3725</v>
+        <v>2839</v>
       </c>
       <c r="AZ18" s="13">
-        <v>2839</v>
+        <v>3608</v>
       </c>
       <c r="BA18" s="13">
-        <v>3608</v>
+        <v>1255</v>
       </c>
       <c r="BB18" s="13">
-        <v>1255</v>
+        <v>1546</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="BA19" s="15"/>
       <c r="BB19" s="15"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2789,8 +2789,8 @@
       <c r="S20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="17" t="s">
-        <v>57</v>
+      <c r="T20" s="17">
+        <v>0</v>
       </c>
       <c r="U20" s="17">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
@@ -2947,112 +2947,112 @@
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="U21" s="19">
-        <v>142499</v>
+        <v>183554</v>
       </c>
       <c r="V21" s="19">
-        <v>183554</v>
+        <v>231973</v>
       </c>
       <c r="W21" s="19">
-        <v>231973</v>
+        <v>188287</v>
       </c>
       <c r="X21" s="19">
-        <v>188287</v>
+        <v>195201</v>
       </c>
       <c r="Y21" s="19">
-        <v>195201</v>
+        <v>216046</v>
       </c>
       <c r="Z21" s="19">
-        <v>216046</v>
+        <v>163639</v>
       </c>
       <c r="AA21" s="19">
-        <v>163639</v>
+        <v>195725</v>
       </c>
       <c r="AB21" s="19">
-        <v>195725</v>
+        <v>169923</v>
       </c>
       <c r="AC21" s="19">
-        <v>169923</v>
+        <v>171946</v>
       </c>
       <c r="AD21" s="19">
-        <v>171946</v>
+        <v>197665</v>
       </c>
       <c r="AE21" s="19">
-        <v>197665</v>
+        <v>196349</v>
       </c>
       <c r="AF21" s="19">
-        <v>196349</v>
+        <v>201568</v>
       </c>
       <c r="AG21" s="19">
-        <v>201568</v>
+        <v>190295</v>
       </c>
       <c r="AH21" s="19">
-        <v>190295</v>
+        <v>194713</v>
       </c>
       <c r="AI21" s="19">
-        <v>194713</v>
+        <v>142181</v>
       </c>
       <c r="AJ21" s="19">
-        <v>142181</v>
+        <v>143824</v>
       </c>
       <c r="AK21" s="19">
-        <v>143824</v>
+        <v>232679</v>
       </c>
       <c r="AL21" s="19">
-        <v>232679</v>
+        <v>191415</v>
       </c>
       <c r="AM21" s="19">
-        <v>191415</v>
+        <v>229492</v>
       </c>
       <c r="AN21" s="19">
-        <v>229492</v>
+        <v>222183</v>
       </c>
       <c r="AO21" s="19">
-        <v>222183</v>
+        <v>191575</v>
       </c>
       <c r="AP21" s="19">
-        <v>191575</v>
+        <v>169787</v>
       </c>
       <c r="AQ21" s="19">
-        <v>169787</v>
+        <v>202272</v>
       </c>
       <c r="AR21" s="19">
-        <v>202272</v>
+        <v>226304</v>
       </c>
       <c r="AS21" s="19">
-        <v>226304</v>
+        <v>248428</v>
       </c>
       <c r="AT21" s="19">
-        <v>248428</v>
+        <v>192875</v>
       </c>
       <c r="AU21" s="19">
-        <v>192875</v>
+        <v>193375</v>
       </c>
       <c r="AV21" s="19">
-        <v>193375</v>
+        <v>202628</v>
       </c>
       <c r="AW21" s="19">
-        <v>202628</v>
+        <v>241373</v>
       </c>
       <c r="AX21" s="19">
-        <v>241373</v>
+        <v>233692</v>
       </c>
       <c r="AY21" s="19">
-        <v>233692</v>
+        <v>201938</v>
       </c>
       <c r="AZ21" s="19">
-        <v>201938</v>
+        <v>169553</v>
       </c>
       <c r="BA21" s="19">
-        <v>169553</v>
+        <v>164667</v>
       </c>
       <c r="BB21" s="19">
-        <v>164667</v>
+        <v>162972</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3107,7 +3107,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3162,7 +3162,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3217,7 +3217,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>68</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3429,7 +3429,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3539,50 +3539,50 @@
       <c r="S28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T28" s="11" t="s">
-        <v>57</v>
+      <c r="T28" s="11">
+        <v>0</v>
       </c>
       <c r="U28" s="11">
         <v>0</v>
       </c>
       <c r="V28" s="11">
-        <v>0</v>
+        <v>16734</v>
       </c>
       <c r="W28" s="11">
-        <v>16734</v>
+        <v>1367</v>
       </c>
       <c r="X28" s="11">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="11">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="11">
         <v>0</v>
       </c>
       <c r="AB28" s="11">
-        <v>0</v>
+        <v>5321</v>
       </c>
       <c r="AC28" s="11">
-        <v>5321</v>
+        <v>45</v>
       </c>
       <c r="AD28" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="11">
         <v>0</v>
       </c>
-      <c r="AF28" s="11">
-        <v>0</v>
+      <c r="AF28" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH28" s="11" t="s">
-        <v>57</v>
+      <c r="AH28" s="11">
+        <v>0</v>
       </c>
       <c r="AI28" s="11">
         <v>0</v>
@@ -3591,43 +3591,43 @@
         <v>0</v>
       </c>
       <c r="AK28" s="11">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="AL28" s="11">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="11">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="AN28" s="11">
-        <v>979</v>
+        <v>3298</v>
       </c>
       <c r="AO28" s="11">
-        <v>3298</v>
+        <v>1709</v>
       </c>
       <c r="AP28" s="11">
-        <v>1709</v>
+        <v>4635</v>
       </c>
       <c r="AQ28" s="11">
-        <v>4635</v>
+        <v>13855</v>
       </c>
       <c r="AR28" s="11">
-        <v>13855</v>
+        <v>1698</v>
       </c>
       <c r="AS28" s="11">
-        <v>1698</v>
+        <v>234</v>
       </c>
       <c r="AT28" s="11">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="AU28" s="11">
-        <v>10</v>
+        <v>4165</v>
       </c>
       <c r="AV28" s="11">
-        <v>4165</v>
+        <v>10746</v>
       </c>
       <c r="AW28" s="11">
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="11">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="11">
-        <v>0</v>
+        <v>45945</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
@@ -3698,8 +3698,8 @@
       <c r="S29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T29" s="13" t="s">
-        <v>57</v>
+      <c r="T29" s="13">
+        <v>0</v>
       </c>
       <c r="U29" s="13">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
@@ -3857,113 +3857,113 @@
       <c r="S30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T30" s="11" t="s">
-        <v>57</v>
+      <c r="T30" s="11">
+        <v>28500</v>
       </c>
       <c r="U30" s="11">
-        <v>28500</v>
+        <v>62000</v>
       </c>
       <c r="V30" s="11">
-        <v>62000</v>
+        <v>102460</v>
       </c>
       <c r="W30" s="11">
-        <v>102460</v>
+        <v>48128</v>
       </c>
       <c r="X30" s="11">
-        <v>48128</v>
+        <v>46858</v>
       </c>
       <c r="Y30" s="11">
-        <v>46858</v>
+        <v>50032</v>
       </c>
       <c r="Z30" s="11">
-        <v>50032</v>
+        <v>28155</v>
       </c>
       <c r="AA30" s="11">
-        <v>28155</v>
+        <v>34477</v>
       </c>
       <c r="AB30" s="11">
-        <v>34477</v>
+        <v>106460</v>
       </c>
       <c r="AC30" s="11">
-        <v>106460</v>
+        <v>13951</v>
       </c>
       <c r="AD30" s="11">
-        <v>13951</v>
+        <v>44207</v>
       </c>
       <c r="AE30" s="11">
-        <v>44207</v>
+        <v>55143</v>
       </c>
       <c r="AF30" s="11">
-        <v>55143</v>
+        <v>81976</v>
       </c>
       <c r="AG30" s="11">
-        <v>81976</v>
+        <v>50999</v>
       </c>
       <c r="AH30" s="11">
-        <v>50999</v>
+        <v>51305</v>
       </c>
       <c r="AI30" s="11">
-        <v>51305</v>
+        <v>21565</v>
       </c>
       <c r="AJ30" s="11">
-        <v>21565</v>
+        <v>14772</v>
       </c>
       <c r="AK30" s="11">
-        <v>14772</v>
+        <v>61533</v>
       </c>
       <c r="AL30" s="11">
-        <v>61533</v>
+        <v>47160</v>
       </c>
       <c r="AM30" s="11">
-        <v>47160</v>
+        <v>30965</v>
       </c>
       <c r="AN30" s="11">
-        <v>30965</v>
+        <v>15781</v>
       </c>
       <c r="AO30" s="11">
-        <v>15781</v>
+        <v>66759</v>
       </c>
       <c r="AP30" s="11">
-        <v>66759</v>
+        <v>34502</v>
       </c>
       <c r="AQ30" s="11">
-        <v>34502</v>
+        <v>93641</v>
       </c>
       <c r="AR30" s="11">
-        <v>93641</v>
+        <v>63421</v>
       </c>
       <c r="AS30" s="11">
-        <v>63421</v>
+        <v>21216</v>
       </c>
       <c r="AT30" s="11">
-        <v>21216</v>
+        <v>14403</v>
       </c>
       <c r="AU30" s="11">
-        <v>14403</v>
+        <v>31908</v>
       </c>
       <c r="AV30" s="11">
-        <v>31908</v>
+        <v>49863</v>
       </c>
       <c r="AW30" s="11">
-        <v>49863</v>
+        <v>38955</v>
       </c>
       <c r="AX30" s="11">
-        <v>38955</v>
+        <v>40419</v>
       </c>
       <c r="AY30" s="11">
-        <v>40419</v>
+        <v>21694</v>
       </c>
       <c r="AZ30" s="11">
-        <v>21694</v>
+        <v>65047</v>
       </c>
       <c r="BA30" s="11">
-        <v>65047</v>
+        <v>63626</v>
       </c>
       <c r="BB30" s="11">
-        <v>63626</v>
+        <v>83164</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
@@ -4019,8 +4019,8 @@
       <c r="T31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>57</v>
+      <c r="U31" s="13">
+        <v>0</v>
       </c>
       <c r="V31" s="13">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4175,113 +4175,113 @@
       <c r="S32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T32" s="11" t="s">
-        <v>57</v>
+      <c r="T32" s="11">
+        <v>12950</v>
       </c>
       <c r="U32" s="11">
-        <v>12950</v>
+        <v>24517</v>
       </c>
       <c r="V32" s="11">
-        <v>24517</v>
+        <v>15291</v>
       </c>
       <c r="W32" s="11">
-        <v>15291</v>
+        <v>25533</v>
       </c>
       <c r="X32" s="11">
-        <v>25533</v>
+        <v>7450</v>
       </c>
       <c r="Y32" s="11">
-        <v>7450</v>
+        <v>43522</v>
       </c>
       <c r="Z32" s="11">
-        <v>43522</v>
+        <v>16103</v>
       </c>
       <c r="AA32" s="11">
-        <v>16103</v>
+        <v>32527</v>
       </c>
       <c r="AB32" s="11">
-        <v>32527</v>
+        <v>28224</v>
       </c>
       <c r="AC32" s="11">
-        <v>28224</v>
+        <v>20614</v>
       </c>
       <c r="AD32" s="11">
-        <v>20614</v>
+        <v>13868</v>
       </c>
       <c r="AE32" s="11">
-        <v>13868</v>
+        <v>32268</v>
       </c>
       <c r="AF32" s="11">
-        <v>32268</v>
+        <v>9202</v>
       </c>
       <c r="AG32" s="11">
-        <v>9202</v>
+        <v>27886</v>
       </c>
       <c r="AH32" s="11">
-        <v>27886</v>
+        <v>8834</v>
       </c>
       <c r="AI32" s="11">
-        <v>8834</v>
+        <v>17476</v>
       </c>
       <c r="AJ32" s="11">
-        <v>17476</v>
+        <v>17212</v>
       </c>
       <c r="AK32" s="11">
-        <v>17212</v>
+        <v>20827</v>
       </c>
       <c r="AL32" s="11">
-        <v>20827</v>
+        <v>25569</v>
       </c>
       <c r="AM32" s="11">
-        <v>25569</v>
+        <v>23764</v>
       </c>
       <c r="AN32" s="11">
-        <v>23764</v>
+        <v>21953</v>
       </c>
       <c r="AO32" s="11">
-        <v>21953</v>
+        <v>18024</v>
       </c>
       <c r="AP32" s="11">
-        <v>18024</v>
+        <v>22412</v>
       </c>
       <c r="AQ32" s="11">
-        <v>22412</v>
+        <v>21338</v>
       </c>
       <c r="AR32" s="11">
-        <v>21338</v>
+        <v>18446</v>
       </c>
       <c r="AS32" s="11">
-        <v>18446</v>
+        <v>23813</v>
       </c>
       <c r="AT32" s="11">
-        <v>23813</v>
+        <v>31306</v>
       </c>
       <c r="AU32" s="11">
-        <v>31306</v>
+        <v>35090</v>
       </c>
       <c r="AV32" s="11">
-        <v>35090</v>
+        <v>30167</v>
       </c>
       <c r="AW32" s="11">
-        <v>30167</v>
+        <v>24805</v>
       </c>
       <c r="AX32" s="11">
-        <v>24805</v>
+        <v>19242</v>
       </c>
       <c r="AY32" s="11">
-        <v>19242</v>
+        <v>18012</v>
       </c>
       <c r="AZ32" s="11">
-        <v>18012</v>
+        <v>30191</v>
       </c>
       <c r="BA32" s="11">
-        <v>30191</v>
+        <v>23629</v>
       </c>
       <c r="BB32" s="11">
-        <v>23629</v>
+        <v>32288</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>62</v>
       </c>
@@ -4355,92 +4355,92 @@
       <c r="Z33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA33" s="13" t="s">
-        <v>57</v>
+      <c r="AA33" s="13">
+        <v>0</v>
       </c>
       <c r="AB33" s="13">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AC33" s="13">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="13">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AE33" s="13">
-        <v>64</v>
-      </c>
-      <c r="AF33" s="13">
         <v>578</v>
       </c>
+      <c r="AF33" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH33" s="13" t="s">
-        <v>57</v>
+      <c r="AH33" s="13">
+        <v>743</v>
       </c>
       <c r="AI33" s="13">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="AJ33" s="13">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="AK33" s="13">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="AL33" s="13">
-        <v>252</v>
+        <v>449</v>
       </c>
       <c r="AM33" s="13">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="AN33" s="13">
-        <v>595</v>
+        <v>343</v>
       </c>
       <c r="AO33" s="13">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="AP33" s="13">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="AQ33" s="13">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AR33" s="13">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="AS33" s="13">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AT33" s="13">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AU33" s="13">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AV33" s="13">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AW33" s="13">
-        <v>310</v>
+        <v>736</v>
       </c>
       <c r="AX33" s="13">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AY33" s="13">
-        <v>708</v>
+        <v>258</v>
       </c>
       <c r="AZ33" s="13">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="BA33" s="13">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="BB33" s="13">
-        <v>423</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>63</v>
       </c>
@@ -4499,11 +4499,11 @@
       <c r="U34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V34" s="11" t="s">
-        <v>57</v>
+      <c r="V34" s="11">
+        <v>2944</v>
       </c>
       <c r="W34" s="11">
-        <v>2944</v>
+        <v>0</v>
       </c>
       <c r="X34" s="11">
         <v>0</v>
@@ -4529,14 +4529,14 @@
       <c r="AE34" s="11">
         <v>0</v>
       </c>
-      <c r="AF34" s="11">
-        <v>0</v>
+      <c r="AF34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH34" s="11" t="s">
-        <v>57</v>
+      <c r="AH34" s="11">
+        <v>0</v>
       </c>
       <c r="AI34" s="11">
         <v>0</v>
@@ -4563,43 +4563,43 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="11">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="AR34" s="11">
-        <v>1868</v>
+        <v>2076</v>
       </c>
       <c r="AS34" s="11">
-        <v>2076</v>
+        <v>3527</v>
       </c>
       <c r="AT34" s="11">
-        <v>3527</v>
+        <v>3575</v>
       </c>
       <c r="AU34" s="11">
-        <v>3575</v>
+        <v>1452</v>
       </c>
       <c r="AV34" s="11">
-        <v>1452</v>
+        <v>879</v>
       </c>
       <c r="AW34" s="11">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="11">
         <v>0</v>
       </c>
       <c r="AY34" s="11">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="11">
         <v>0</v>
       </c>
       <c r="BB34" s="11">
-        <v>0</v>
+        <v>4071</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>64</v>
       </c>
@@ -4658,8 +4658,8 @@
       <c r="U35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V35" s="13" t="s">
-        <v>57</v>
+      <c r="V35" s="13">
+        <v>0</v>
       </c>
       <c r="W35" s="13">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="AE35" s="13">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AF35" s="13">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="13">
         <v>0</v>
@@ -4698,28 +4698,28 @@
         <v>0</v>
       </c>
       <c r="AI35" s="13">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="AJ35" s="13">
-        <v>3050</v>
+        <v>2807</v>
       </c>
       <c r="AK35" s="13">
-        <v>2807</v>
+        <v>6252</v>
       </c>
       <c r="AL35" s="13">
-        <v>6252</v>
+        <v>3980</v>
       </c>
       <c r="AM35" s="13">
-        <v>3980</v>
+        <v>7599</v>
       </c>
       <c r="AN35" s="13">
-        <v>7599</v>
+        <v>285</v>
       </c>
       <c r="AO35" s="13">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="AP35" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="13">
         <v>0</v>
@@ -4740,25 +4740,25 @@
         <v>0</v>
       </c>
       <c r="AW35" s="13">
-        <v>0</v>
+        <v>9959</v>
       </c>
       <c r="AX35" s="13">
-        <v>9959</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="13">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1040</v>
+        <v>3968</v>
       </c>
       <c r="BA35" s="13">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="13">
-        <v>0</v>
+        <v>4995</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>65</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="BA36" s="15"/>
       <c r="BB36" s="15"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>66</v>
       </c>
@@ -4866,8 +4866,8 @@
       <c r="S37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T37" s="17" t="s">
-        <v>57</v>
+      <c r="T37" s="17">
+        <v>0</v>
       </c>
       <c r="U37" s="17">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>69</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="BA38" s="15"/>
       <c r="BB38" s="15"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5080,8 +5080,8 @@
       <c r="S39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T39" s="17" t="s">
-        <v>57</v>
+      <c r="T39" s="17">
+        <v>0</v>
       </c>
       <c r="U39" s="17">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>67</v>
       </c>
@@ -5238,112 +5238,112 @@
         <v>0</v>
       </c>
       <c r="T40" s="19">
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="U40" s="19">
-        <v>41450</v>
+        <v>86517</v>
       </c>
       <c r="V40" s="19">
-        <v>86517</v>
+        <v>137429</v>
       </c>
       <c r="W40" s="19">
-        <v>137429</v>
+        <v>75028</v>
       </c>
       <c r="X40" s="19">
-        <v>75028</v>
+        <v>54308</v>
       </c>
       <c r="Y40" s="19">
-        <v>54308</v>
+        <v>93591</v>
       </c>
       <c r="Z40" s="19">
-        <v>93591</v>
+        <v>44258</v>
       </c>
       <c r="AA40" s="19">
-        <v>44258</v>
+        <v>67004</v>
       </c>
       <c r="AB40" s="19">
-        <v>67004</v>
+        <v>140186</v>
       </c>
       <c r="AC40" s="19">
-        <v>140186</v>
+        <v>34610</v>
       </c>
       <c r="AD40" s="19">
-        <v>34610</v>
+        <v>58139</v>
       </c>
       <c r="AE40" s="19">
-        <v>58139</v>
+        <v>88085</v>
       </c>
       <c r="AF40" s="19">
-        <v>88085</v>
+        <v>91178</v>
       </c>
       <c r="AG40" s="19">
-        <v>91178</v>
+        <v>78885</v>
       </c>
       <c r="AH40" s="19">
-        <v>78885</v>
+        <v>60882</v>
       </c>
       <c r="AI40" s="19">
-        <v>60882</v>
+        <v>42125</v>
       </c>
       <c r="AJ40" s="19">
-        <v>42125</v>
+        <v>35005</v>
       </c>
       <c r="AK40" s="19">
-        <v>35005</v>
+        <v>90348</v>
       </c>
       <c r="AL40" s="19">
-        <v>90348</v>
+        <v>77158</v>
       </c>
       <c r="AM40" s="19">
-        <v>77158</v>
+        <v>63902</v>
       </c>
       <c r="AN40" s="19">
-        <v>63902</v>
+        <v>41660</v>
       </c>
       <c r="AO40" s="19">
-        <v>41660</v>
+        <v>86639</v>
       </c>
       <c r="AP40" s="19">
-        <v>86639</v>
+        <v>61917</v>
       </c>
       <c r="AQ40" s="19">
-        <v>61917</v>
+        <v>131022</v>
       </c>
       <c r="AR40" s="19">
-        <v>131022</v>
+        <v>85765</v>
       </c>
       <c r="AS40" s="19">
-        <v>85765</v>
+        <v>48871</v>
       </c>
       <c r="AT40" s="19">
-        <v>48871</v>
+        <v>49462</v>
       </c>
       <c r="AU40" s="19">
-        <v>49462</v>
+        <v>72693</v>
       </c>
       <c r="AV40" s="19">
-        <v>72693</v>
+        <v>91965</v>
       </c>
       <c r="AW40" s="19">
-        <v>91965</v>
+        <v>74455</v>
       </c>
       <c r="AX40" s="19">
-        <v>74455</v>
+        <v>60369</v>
       </c>
       <c r="AY40" s="19">
-        <v>60369</v>
+        <v>42306</v>
       </c>
       <c r="AZ40" s="19">
-        <v>42306</v>
+        <v>99622</v>
       </c>
       <c r="BA40" s="19">
-        <v>99622</v>
+        <v>87678</v>
       </c>
       <c r="BB40" s="19">
-        <v>87678</v>
+        <v>170842</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5398,7 +5398,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5453,7 +5453,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5508,7 +5508,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>71</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5720,7 +5720,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>71</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5830,50 +5830,50 @@
       <c r="S47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>57</v>
+      <c r="T47" s="11">
+        <v>0</v>
       </c>
       <c r="U47" s="11">
         <v>0</v>
       </c>
       <c r="V47" s="11">
-        <v>0</v>
+        <v>14392</v>
       </c>
       <c r="W47" s="11">
-        <v>14392</v>
+        <v>27037</v>
       </c>
       <c r="X47" s="11">
-        <v>27037</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="11">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="Z47" s="11">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="11">
         <v>0</v>
       </c>
       <c r="AB47" s="11">
-        <v>0</v>
+        <v>17818</v>
       </c>
       <c r="AC47" s="11">
-        <v>17818</v>
+        <v>88</v>
       </c>
       <c r="AD47" s="11">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="11">
         <v>0</v>
       </c>
-      <c r="AF47" s="11">
-        <v>0</v>
+      <c r="AF47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH47" s="11" t="s">
-        <v>57</v>
+      <c r="AH47" s="11">
+        <v>0</v>
       </c>
       <c r="AI47" s="11">
         <v>0</v>
@@ -5882,43 +5882,43 @@
         <v>0</v>
       </c>
       <c r="AK47" s="11">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="AL47" s="11">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="11">
-        <v>0</v>
+        <v>10976</v>
       </c>
       <c r="AN47" s="11">
-        <v>10976</v>
+        <v>42210</v>
       </c>
       <c r="AO47" s="11">
-        <v>42210</v>
+        <v>17208</v>
       </c>
       <c r="AP47" s="11">
-        <v>17208</v>
+        <v>137054</v>
       </c>
       <c r="AQ47" s="11">
-        <v>137054</v>
+        <v>219665</v>
       </c>
       <c r="AR47" s="11">
-        <v>219665</v>
+        <v>13155</v>
       </c>
       <c r="AS47" s="11">
-        <v>13155</v>
+        <v>7486</v>
       </c>
       <c r="AT47" s="11">
-        <v>7486</v>
+        <v>3</v>
       </c>
       <c r="AU47" s="11">
-        <v>3</v>
+        <v>29320</v>
       </c>
       <c r="AV47" s="11">
-        <v>29320</v>
+        <v>75650</v>
       </c>
       <c r="AW47" s="11">
-        <v>75650</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="11">
         <v>0</v>
@@ -5933,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="BB47" s="11">
-        <v>0</v>
+        <v>944172</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>58</v>
       </c>
@@ -5989,8 +5989,8 @@
       <c r="S48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T48" s="13" t="s">
-        <v>57</v>
+      <c r="T48" s="13">
+        <v>0</v>
       </c>
       <c r="U48" s="13">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>59</v>
       </c>
@@ -6148,113 +6148,113 @@
       <c r="S49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T49" s="11" t="s">
-        <v>57</v>
+      <c r="T49" s="11">
+        <v>1303971</v>
       </c>
       <c r="U49" s="11">
-        <v>1303971</v>
+        <v>3165612</v>
       </c>
       <c r="V49" s="11">
-        <v>3165612</v>
+        <v>11894129</v>
       </c>
       <c r="W49" s="11">
-        <v>11894129</v>
+        <v>4245269</v>
       </c>
       <c r="X49" s="11">
-        <v>4245269</v>
+        <v>4168991</v>
       </c>
       <c r="Y49" s="11">
-        <v>4168991</v>
+        <v>3967770</v>
       </c>
       <c r="Z49" s="11">
-        <v>3967770</v>
+        <v>2859165</v>
       </c>
       <c r="AA49" s="11">
-        <v>2859165</v>
+        <v>3660946</v>
       </c>
       <c r="AB49" s="11">
-        <v>3660946</v>
+        <v>10867972</v>
       </c>
       <c r="AC49" s="11">
-        <v>10867972</v>
+        <v>1348054</v>
       </c>
       <c r="AD49" s="11">
-        <v>1348054</v>
+        <v>5045351</v>
       </c>
       <c r="AE49" s="11">
-        <v>5045351</v>
+        <v>5474269</v>
       </c>
       <c r="AF49" s="11">
-        <v>5474269</v>
+        <v>9961993</v>
       </c>
       <c r="AG49" s="11">
-        <v>9961993</v>
+        <v>6249903</v>
       </c>
       <c r="AH49" s="11">
-        <v>6249903</v>
+        <v>6251779</v>
       </c>
       <c r="AI49" s="11">
-        <v>6251779</v>
+        <v>2840550</v>
       </c>
       <c r="AJ49" s="11">
-        <v>2840550</v>
+        <v>2157230</v>
       </c>
       <c r="AK49" s="11">
-        <v>2157230</v>
+        <v>8708557</v>
       </c>
       <c r="AL49" s="11">
-        <v>8708557</v>
+        <v>6459606</v>
       </c>
       <c r="AM49" s="11">
-        <v>6459606</v>
+        <v>4146765</v>
       </c>
       <c r="AN49" s="11">
-        <v>4146765</v>
+        <v>2050885</v>
       </c>
       <c r="AO49" s="11">
-        <v>2050885</v>
+        <v>8639289</v>
       </c>
       <c r="AP49" s="11">
-        <v>8639289</v>
+        <v>4299169</v>
       </c>
       <c r="AQ49" s="11">
-        <v>4299169</v>
+        <v>12385972</v>
       </c>
       <c r="AR49" s="11">
-        <v>12385972</v>
+        <v>8827474</v>
       </c>
       <c r="AS49" s="11">
-        <v>8827474</v>
+        <v>3166485</v>
       </c>
       <c r="AT49" s="11">
-        <v>3166485</v>
+        <v>2074940</v>
       </c>
       <c r="AU49" s="11">
-        <v>2074940</v>
+        <v>4485812</v>
       </c>
       <c r="AV49" s="11">
-        <v>4485812</v>
+        <v>6648195</v>
       </c>
       <c r="AW49" s="11">
-        <v>6648195</v>
+        <v>4732309</v>
       </c>
       <c r="AX49" s="11">
-        <v>4732309</v>
+        <v>5254114</v>
       </c>
       <c r="AY49" s="11">
-        <v>5254114</v>
+        <v>2902069</v>
       </c>
       <c r="AZ49" s="11">
-        <v>2902069</v>
+        <v>8956461</v>
       </c>
       <c r="BA49" s="11">
-        <v>8956461</v>
+        <v>9374406</v>
       </c>
       <c r="BB49" s="11">
-        <v>9374406</v>
+        <v>13999335</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>60</v>
       </c>
@@ -6310,8 +6310,8 @@
       <c r="T50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>57</v>
+      <c r="U50" s="13">
+        <v>0</v>
       </c>
       <c r="V50" s="13">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>61</v>
       </c>
@@ -6466,113 +6466,113 @@
       <c r="S51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>57</v>
+      <c r="T51" s="11">
+        <v>654246</v>
       </c>
       <c r="U51" s="11">
-        <v>654246</v>
+        <v>1302124</v>
       </c>
       <c r="V51" s="11">
-        <v>1302124</v>
+        <v>688571</v>
       </c>
       <c r="W51" s="11">
-        <v>688571</v>
+        <v>1966809</v>
       </c>
       <c r="X51" s="11">
-        <v>1966809</v>
+        <v>618059</v>
       </c>
       <c r="Y51" s="11">
-        <v>618059</v>
+        <v>3568433</v>
       </c>
       <c r="Z51" s="11">
-        <v>3568433</v>
+        <v>1667546</v>
       </c>
       <c r="AA51" s="11">
-        <v>1667546</v>
+        <v>3605296</v>
       </c>
       <c r="AB51" s="11">
-        <v>3605296</v>
+        <v>2902364</v>
       </c>
       <c r="AC51" s="11">
-        <v>2902364</v>
+        <v>2214369</v>
       </c>
       <c r="AD51" s="11">
-        <v>2214369</v>
+        <v>1553225</v>
       </c>
       <c r="AE51" s="11">
-        <v>1553225</v>
+        <v>3637914</v>
       </c>
       <c r="AF51" s="11">
-        <v>3637914</v>
+        <v>1067346</v>
       </c>
       <c r="AG51" s="11">
-        <v>1067346</v>
+        <v>3519609</v>
       </c>
       <c r="AH51" s="11">
-        <v>3519609</v>
+        <v>1052298</v>
       </c>
       <c r="AI51" s="11">
-        <v>1052298</v>
+        <v>2429680</v>
       </c>
       <c r="AJ51" s="11">
-        <v>2429680</v>
+        <v>2511782</v>
       </c>
       <c r="AK51" s="11">
-        <v>2511782</v>
+        <v>3240571</v>
       </c>
       <c r="AL51" s="11">
-        <v>3240571</v>
+        <v>3555247</v>
       </c>
       <c r="AM51" s="11">
-        <v>3555247</v>
+        <v>3409874</v>
       </c>
       <c r="AN51" s="11">
-        <v>3409874</v>
+        <v>3204470</v>
       </c>
       <c r="AO51" s="11">
-        <v>3204470</v>
+        <v>2510284</v>
       </c>
       <c r="AP51" s="11">
-        <v>2510284</v>
+        <v>3202108</v>
       </c>
       <c r="AQ51" s="11">
-        <v>3202108</v>
+        <v>3131634</v>
       </c>
       <c r="AR51" s="11">
-        <v>3131634</v>
+        <v>2774540</v>
       </c>
       <c r="AS51" s="11">
-        <v>2774540</v>
+        <v>3697408</v>
       </c>
       <c r="AT51" s="11">
-        <v>3697408</v>
+        <v>5020076</v>
       </c>
       <c r="AU51" s="11">
-        <v>5020076</v>
+        <v>5617313</v>
       </c>
       <c r="AV51" s="11">
-        <v>5617313</v>
+        <v>4520013</v>
       </c>
       <c r="AW51" s="11">
-        <v>4520013</v>
+        <v>3638292</v>
       </c>
       <c r="AX51" s="11">
-        <v>3638292</v>
+        <v>2873512</v>
       </c>
       <c r="AY51" s="11">
-        <v>2873512</v>
+        <v>2713536</v>
       </c>
       <c r="AZ51" s="11">
-        <v>2713536</v>
+        <v>4509332</v>
       </c>
       <c r="BA51" s="11">
-        <v>4509332</v>
+        <v>3734989</v>
       </c>
       <c r="BB51" s="11">
-        <v>3734989</v>
+        <v>5878328</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>62</v>
       </c>
@@ -6646,92 +6646,92 @@
       <c r="Z52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA52" s="13" t="s">
-        <v>57</v>
+      <c r="AA52" s="13">
+        <v>0</v>
       </c>
       <c r="AB52" s="13">
-        <v>0</v>
+        <v>8278</v>
       </c>
       <c r="AC52" s="13">
-        <v>8278</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="13">
-        <v>0</v>
+        <v>3126</v>
       </c>
       <c r="AE52" s="13">
-        <v>3126</v>
-      </c>
-      <c r="AF52" s="13">
         <v>29419</v>
       </c>
+      <c r="AF52" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH52" s="13" t="s">
-        <v>57</v>
+      <c r="AH52" s="13">
+        <v>44358</v>
       </c>
       <c r="AI52" s="13">
-        <v>44358</v>
+        <v>1758</v>
       </c>
       <c r="AJ52" s="13">
-        <v>1758</v>
+        <v>14260</v>
       </c>
       <c r="AK52" s="13">
-        <v>14260</v>
+        <v>20217</v>
       </c>
       <c r="AL52" s="13">
-        <v>20217</v>
+        <v>32597</v>
       </c>
       <c r="AM52" s="13">
-        <v>32597</v>
+        <v>37663</v>
       </c>
       <c r="AN52" s="13">
-        <v>37663</v>
+        <v>23501</v>
       </c>
       <c r="AO52" s="13">
-        <v>23501</v>
+        <v>10774</v>
       </c>
       <c r="AP52" s="13">
-        <v>10774</v>
+        <v>11557</v>
       </c>
       <c r="AQ52" s="13">
-        <v>11557</v>
+        <v>10008</v>
       </c>
       <c r="AR52" s="13">
-        <v>10008</v>
+        <v>4605</v>
       </c>
       <c r="AS52" s="13">
-        <v>4605</v>
+        <v>6664</v>
       </c>
       <c r="AT52" s="13">
-        <v>6664</v>
+        <v>11395</v>
       </c>
       <c r="AU52" s="13">
-        <v>11395</v>
+        <v>11182</v>
       </c>
       <c r="AV52" s="13">
-        <v>11182</v>
+        <v>32470</v>
       </c>
       <c r="AW52" s="13">
-        <v>32470</v>
+        <v>65370</v>
       </c>
       <c r="AX52" s="13">
-        <v>65370</v>
+        <v>48487</v>
       </c>
       <c r="AY52" s="13">
-        <v>48487</v>
+        <v>29279</v>
       </c>
       <c r="AZ52" s="13">
-        <v>29279</v>
+        <v>32551</v>
       </c>
       <c r="BA52" s="13">
-        <v>32551</v>
+        <v>39209</v>
       </c>
       <c r="BB52" s="13">
-        <v>39209</v>
+        <v>31368</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>63</v>
       </c>
@@ -6790,11 +6790,11 @@
       <c r="U53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V53" s="11" t="s">
-        <v>57</v>
+      <c r="V53" s="11">
+        <v>47693</v>
       </c>
       <c r="W53" s="11">
-        <v>47693</v>
+        <v>0</v>
       </c>
       <c r="X53" s="11">
         <v>0</v>
@@ -6820,14 +6820,14 @@
       <c r="AE53" s="11">
         <v>0</v>
       </c>
-      <c r="AF53" s="11">
-        <v>0</v>
+      <c r="AF53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH53" s="11" t="s">
-        <v>57</v>
+      <c r="AH53" s="11">
+        <v>0</v>
       </c>
       <c r="AI53" s="11">
         <v>0</v>
@@ -6854,43 +6854,43 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="11">
-        <v>0</v>
+        <v>67295</v>
       </c>
       <c r="AR53" s="11">
-        <v>67295</v>
+        <v>75318</v>
       </c>
       <c r="AS53" s="11">
-        <v>75318</v>
+        <v>181305</v>
       </c>
       <c r="AT53" s="11">
-        <v>181305</v>
+        <v>207207</v>
       </c>
       <c r="AU53" s="11">
-        <v>207207</v>
+        <v>84139</v>
       </c>
       <c r="AV53" s="11">
-        <v>84139</v>
+        <v>50959</v>
       </c>
       <c r="AW53" s="11">
-        <v>50959</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="11">
         <v>0</v>
       </c>
       <c r="AY53" s="11">
-        <v>0</v>
+        <v>75457</v>
       </c>
       <c r="AZ53" s="11">
-        <v>75457</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="11">
         <v>0</v>
       </c>
       <c r="BB53" s="11">
-        <v>0</v>
+        <v>335014</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>64</v>
       </c>
@@ -6949,8 +6949,8 @@
       <c r="U54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="13" t="s">
-        <v>57</v>
+      <c r="V54" s="13">
+        <v>0</v>
       </c>
       <c r="W54" s="13">
         <v>0</v>
@@ -6977,10 +6977,10 @@
         <v>0</v>
       </c>
       <c r="AE54" s="13">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="AF54" s="13">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="13">
         <v>0</v>
@@ -6989,28 +6989,28 @@
         <v>0</v>
       </c>
       <c r="AI54" s="13">
-        <v>0</v>
+        <v>104008</v>
       </c>
       <c r="AJ54" s="13">
-        <v>104008</v>
+        <v>95742</v>
       </c>
       <c r="AK54" s="13">
-        <v>95742</v>
+        <v>213161</v>
       </c>
       <c r="AL54" s="13">
-        <v>213161</v>
+        <v>135734</v>
       </c>
       <c r="AM54" s="13">
-        <v>135734</v>
+        <v>259126</v>
       </c>
       <c r="AN54" s="13">
-        <v>259126</v>
+        <v>9715</v>
       </c>
       <c r="AO54" s="13">
-        <v>9715</v>
+        <v>887</v>
       </c>
       <c r="AP54" s="13">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="13">
         <v>0</v>
@@ -7031,25 +7031,25 @@
         <v>0</v>
       </c>
       <c r="AW54" s="13">
-        <v>0</v>
+        <v>445179</v>
       </c>
       <c r="AX54" s="13">
-        <v>445179</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="13">
-        <v>0</v>
+        <v>47077</v>
       </c>
       <c r="AZ54" s="13">
-        <v>47077</v>
+        <v>179730</v>
       </c>
       <c r="BA54" s="13">
-        <v>179730</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="13">
-        <v>0</v>
+        <v>320158</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>73</v>
       </c>
@@ -7106,7 +7106,7 @@
       <c r="BA55" s="15"/>
       <c r="BB55" s="15"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
         <v>66</v>
       </c>
@@ -7159,8 +7159,8 @@
       <c r="S56" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T56" s="17" t="s">
-        <v>57</v>
+      <c r="T56" s="17">
+        <v>0</v>
       </c>
       <c r="U56" s="17">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>74</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="BA57" s="15"/>
       <c r="BB57" s="15"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>70</v>
       </c>
@@ -7375,8 +7375,8 @@
       <c r="S58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T58" s="17" t="s">
-        <v>57</v>
+      <c r="T58" s="17">
+        <v>0</v>
       </c>
       <c r="U58" s="17">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>75</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>76</v>
       </c>
@@ -7591,8 +7591,8 @@
       <c r="S60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T60" s="11" t="s">
-        <v>57</v>
+      <c r="T60" s="11">
+        <v>0</v>
       </c>
       <c r="U60" s="11">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>67</v>
       </c>
@@ -7749,112 +7749,112 @@
         <v>0</v>
       </c>
       <c r="T61" s="19">
-        <v>0</v>
+        <v>1958217</v>
       </c>
       <c r="U61" s="19">
-        <v>1958217</v>
+        <v>4467736</v>
       </c>
       <c r="V61" s="19">
-        <v>4467736</v>
+        <v>12644785</v>
       </c>
       <c r="W61" s="19">
-        <v>12644785</v>
+        <v>6239115</v>
       </c>
       <c r="X61" s="19">
-        <v>6239115</v>
+        <v>4787050</v>
       </c>
       <c r="Y61" s="19">
-        <v>4787050</v>
+        <v>7537315</v>
       </c>
       <c r="Z61" s="19">
-        <v>7537315</v>
+        <v>4526711</v>
       </c>
       <c r="AA61" s="19">
-        <v>4526711</v>
+        <v>7266242</v>
       </c>
       <c r="AB61" s="19">
-        <v>7266242</v>
+        <v>13796432</v>
       </c>
       <c r="AC61" s="19">
-        <v>13796432</v>
+        <v>3562511</v>
       </c>
       <c r="AD61" s="19">
-        <v>3562511</v>
+        <v>6601702</v>
       </c>
       <c r="AE61" s="19">
-        <v>6601702</v>
+        <v>9146398</v>
       </c>
       <c r="AF61" s="19">
-        <v>9146398</v>
+        <v>11029339</v>
       </c>
       <c r="AG61" s="19">
-        <v>11029339</v>
+        <v>9769512</v>
       </c>
       <c r="AH61" s="19">
-        <v>9769512</v>
+        <v>7348435</v>
       </c>
       <c r="AI61" s="19">
-        <v>7348435</v>
+        <v>5375996</v>
       </c>
       <c r="AJ61" s="19">
-        <v>5375996</v>
+        <v>4779014</v>
       </c>
       <c r="AK61" s="19">
-        <v>4779014</v>
+        <v>12183248</v>
       </c>
       <c r="AL61" s="19">
-        <v>12183248</v>
+        <v>10183184</v>
       </c>
       <c r="AM61" s="19">
-        <v>10183184</v>
+        <v>7864404</v>
       </c>
       <c r="AN61" s="19">
-        <v>7864404</v>
+        <v>5330781</v>
       </c>
       <c r="AO61" s="19">
-        <v>5330781</v>
+        <v>11178442</v>
       </c>
       <c r="AP61" s="19">
-        <v>11178442</v>
+        <v>7649888</v>
       </c>
       <c r="AQ61" s="19">
-        <v>7649888</v>
+        <v>15814574</v>
       </c>
       <c r="AR61" s="19">
-        <v>15814574</v>
+        <v>11695092</v>
       </c>
       <c r="AS61" s="19">
-        <v>11695092</v>
+        <v>7059348</v>
       </c>
       <c r="AT61" s="19">
-        <v>7059348</v>
+        <v>7313621</v>
       </c>
       <c r="AU61" s="19">
-        <v>7313621</v>
+        <v>10227766</v>
       </c>
       <c r="AV61" s="19">
-        <v>10227766</v>
+        <v>11327287</v>
       </c>
       <c r="AW61" s="19">
-        <v>11327287</v>
+        <v>8881150</v>
       </c>
       <c r="AX61" s="19">
-        <v>8881150</v>
+        <v>8176113</v>
       </c>
       <c r="AY61" s="19">
-        <v>8176113</v>
+        <v>5767418</v>
       </c>
       <c r="AZ61" s="19">
-        <v>5767418</v>
+        <v>13678074</v>
       </c>
       <c r="BA61" s="19">
-        <v>13678074</v>
+        <v>13148604</v>
       </c>
       <c r="BB61" s="19">
-        <v>13148604</v>
+        <v>21508375</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7909,7 +7909,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7964,7 +7964,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8019,7 +8019,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>77</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8231,7 +8231,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>78</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
@@ -8347,33 +8347,33 @@
       <c r="U68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V68" s="11" t="s">
-        <v>57</v>
+      <c r="V68" s="11">
+        <v>860045</v>
       </c>
       <c r="W68" s="11">
-        <v>860045</v>
-      </c>
-      <c r="X68" s="11">
         <v>19778347</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z68" s="11">
+      <c r="X68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y68" s="11">
         <v>30054054</v>
       </c>
+      <c r="Z68" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB68" s="11" t="s">
-        <v>57</v>
+      <c r="AB68" s="11">
+        <v>3348619</v>
       </c>
       <c r="AC68" s="11">
-        <v>3348619</v>
-      </c>
-      <c r="AD68" s="11">
         <v>1955556</v>
       </c>
+      <c r="AD68" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AE68" s="11" t="s">
         <v>57</v>
       </c>
@@ -8392,45 +8392,45 @@
       <c r="AJ68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL68" s="11">
+      <c r="AK68" s="11">
         <v>500000</v>
       </c>
-      <c r="AM68" s="11" t="s">
-        <v>57</v>
+      <c r="AL68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM68" s="11">
+        <v>11211440</v>
       </c>
       <c r="AN68" s="11">
-        <v>11211440</v>
+        <v>12798666</v>
       </c>
       <c r="AO68" s="11">
-        <v>12798666</v>
+        <v>10069046</v>
       </c>
       <c r="AP68" s="11">
-        <v>10069046</v>
+        <v>29569364</v>
       </c>
       <c r="AQ68" s="11">
-        <v>29569364</v>
+        <v>15854565</v>
       </c>
       <c r="AR68" s="11">
-        <v>15854565</v>
+        <v>7747350</v>
       </c>
       <c r="AS68" s="11">
-        <v>7747350</v>
+        <v>31991453</v>
       </c>
       <c r="AT68" s="11">
-        <v>31991453</v>
+        <v>300000</v>
       </c>
       <c r="AU68" s="11">
-        <v>300000</v>
+        <v>7039616</v>
       </c>
       <c r="AV68" s="11">
-        <v>7039616</v>
-      </c>
-      <c r="AW68" s="11">
         <v>7039829</v>
       </c>
+      <c r="AW68" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AX68" s="11" t="s">
         <v>57</v>
       </c>
@@ -8443,11 +8443,11 @@
       <c r="BA68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB68" s="11" t="s">
-        <v>57</v>
+      <c r="BB68" s="11">
+        <v>20550049</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>59</v>
       </c>
@@ -8500,113 +8500,113 @@
       <c r="S69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T69" s="13" t="s">
-        <v>57</v>
+      <c r="T69" s="13">
+        <v>45753368</v>
       </c>
       <c r="U69" s="13">
-        <v>45753368</v>
+        <v>51058258</v>
       </c>
       <c r="V69" s="13">
-        <v>51058258</v>
+        <v>116085585</v>
       </c>
       <c r="W69" s="13">
-        <v>116085585</v>
+        <v>88207883</v>
       </c>
       <c r="X69" s="13">
-        <v>88207883</v>
+        <v>88970741</v>
       </c>
       <c r="Y69" s="13">
-        <v>88970741</v>
+        <v>79304645</v>
       </c>
       <c r="Z69" s="13">
-        <v>79304645</v>
+        <v>101550879</v>
       </c>
       <c r="AA69" s="13">
-        <v>101550879</v>
+        <v>106185167</v>
       </c>
       <c r="AB69" s="13">
-        <v>106185167</v>
+        <v>102085027</v>
       </c>
       <c r="AC69" s="13">
-        <v>102085027</v>
+        <v>96627769</v>
       </c>
       <c r="AD69" s="13">
-        <v>96627769</v>
+        <v>114130138</v>
       </c>
       <c r="AE69" s="13">
-        <v>114130138</v>
+        <v>99274051</v>
       </c>
       <c r="AF69" s="13">
-        <v>99274051</v>
+        <v>121523287</v>
       </c>
       <c r="AG69" s="13">
-        <v>121523287</v>
+        <v>122549521</v>
       </c>
       <c r="AH69" s="13">
-        <v>122549521</v>
+        <v>121855160</v>
       </c>
       <c r="AI69" s="13">
-        <v>121855160</v>
+        <v>131720380</v>
       </c>
       <c r="AJ69" s="13">
-        <v>131720380</v>
+        <v>146035066</v>
       </c>
       <c r="AK69" s="13">
-        <v>146035066</v>
+        <v>141526612</v>
       </c>
       <c r="AL69" s="13">
-        <v>141526612</v>
+        <v>136972137</v>
       </c>
       <c r="AM69" s="13">
-        <v>136972137</v>
+        <v>133917810</v>
       </c>
       <c r="AN69" s="13">
-        <v>133917810</v>
+        <v>129959128</v>
       </c>
       <c r="AO69" s="13">
-        <v>129959128</v>
+        <v>129410102</v>
       </c>
       <c r="AP69" s="13">
-        <v>129410102</v>
+        <v>124606371</v>
       </c>
       <c r="AQ69" s="13">
-        <v>124606371</v>
+        <v>132270822</v>
       </c>
       <c r="AR69" s="13">
-        <v>132270822</v>
+        <v>139188502</v>
       </c>
       <c r="AS69" s="13">
-        <v>139188502</v>
+        <v>149249859</v>
       </c>
       <c r="AT69" s="13">
-        <v>149249859</v>
+        <v>144063042</v>
       </c>
       <c r="AU69" s="13">
-        <v>144063042</v>
+        <v>140585809</v>
       </c>
       <c r="AV69" s="13">
-        <v>140585809</v>
+        <v>133329222</v>
       </c>
       <c r="AW69" s="13">
-        <v>133329222</v>
+        <v>121481427</v>
       </c>
       <c r="AX69" s="13">
-        <v>121481427</v>
+        <v>129991192</v>
       </c>
       <c r="AY69" s="13">
-        <v>129991192</v>
+        <v>133772887</v>
       </c>
       <c r="AZ69" s="13">
-        <v>133772887</v>
+        <v>137692146</v>
       </c>
       <c r="BA69" s="13">
-        <v>137692146</v>
+        <v>147336089</v>
       </c>
       <c r="BB69" s="13">
-        <v>147336089</v>
+        <v>168334075</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>61</v>
       </c>
@@ -8659,113 +8659,113 @@
       <c r="S70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="11" t="s">
-        <v>57</v>
+      <c r="T70" s="11">
+        <v>50520927</v>
       </c>
       <c r="U70" s="11">
-        <v>50520927</v>
+        <v>53111066</v>
       </c>
       <c r="V70" s="11">
-        <v>53111066</v>
+        <v>45031129</v>
       </c>
       <c r="W70" s="11">
-        <v>45031129</v>
+        <v>77030079</v>
       </c>
       <c r="X70" s="11">
-        <v>77030079</v>
+        <v>82960940</v>
       </c>
       <c r="Y70" s="11">
-        <v>82960940</v>
+        <v>81991476</v>
       </c>
       <c r="Z70" s="11">
-        <v>81991476</v>
+        <v>103554990</v>
       </c>
       <c r="AA70" s="11">
-        <v>103554990</v>
+        <v>110840102</v>
       </c>
       <c r="AB70" s="11">
-        <v>110840102</v>
+        <v>102833192</v>
       </c>
       <c r="AC70" s="11">
-        <v>102833192</v>
+        <v>107420636</v>
       </c>
       <c r="AD70" s="11">
-        <v>107420636</v>
+        <v>112000649</v>
       </c>
       <c r="AE70" s="11">
-        <v>112000649</v>
+        <v>112740610</v>
       </c>
       <c r="AF70" s="11">
-        <v>112740610</v>
+        <v>115990654</v>
       </c>
       <c r="AG70" s="11">
-        <v>115990654</v>
+        <v>126214194</v>
       </c>
       <c r="AH70" s="11">
-        <v>126214194</v>
+        <v>119119085</v>
       </c>
       <c r="AI70" s="11">
-        <v>119119085</v>
+        <v>139029526</v>
       </c>
       <c r="AJ70" s="11">
-        <v>139029526</v>
+        <v>145932024</v>
       </c>
       <c r="AK70" s="11">
-        <v>145932024</v>
+        <v>155594709</v>
       </c>
       <c r="AL70" s="11">
-        <v>155594709</v>
+        <v>139045211</v>
       </c>
       <c r="AM70" s="11">
-        <v>139045211</v>
+        <v>143489059</v>
       </c>
       <c r="AN70" s="11">
-        <v>143489059</v>
+        <v>145969571</v>
       </c>
       <c r="AO70" s="11">
-        <v>145969571</v>
+        <v>139274523</v>
       </c>
       <c r="AP70" s="11">
-        <v>139274523</v>
+        <v>142874710</v>
       </c>
       <c r="AQ70" s="11">
-        <v>142874710</v>
+        <v>146763239</v>
       </c>
       <c r="AR70" s="11">
-        <v>146763239</v>
+        <v>150414182</v>
       </c>
       <c r="AS70" s="11">
-        <v>150414182</v>
+        <v>155268467</v>
       </c>
       <c r="AT70" s="11">
-        <v>155268467</v>
+        <v>160355076</v>
       </c>
       <c r="AU70" s="11">
-        <v>160355076</v>
+        <v>160083015</v>
       </c>
       <c r="AV70" s="11">
-        <v>160083015</v>
+        <v>149833029</v>
       </c>
       <c r="AW70" s="11">
-        <v>149833029</v>
+        <v>146675751</v>
       </c>
       <c r="AX70" s="11">
-        <v>146675751</v>
+        <v>149335412</v>
       </c>
       <c r="AY70" s="11">
-        <v>149335412</v>
+        <v>150651566</v>
       </c>
       <c r="AZ70" s="11">
-        <v>150651566</v>
+        <v>149360140</v>
       </c>
       <c r="BA70" s="11">
-        <v>149360140</v>
+        <v>158068010</v>
       </c>
       <c r="BB70" s="11">
-        <v>158068010</v>
+        <v>182059217</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>62</v>
       </c>
@@ -8842,89 +8842,89 @@
       <c r="AA71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC71" s="13">
+      <c r="AB71" s="13">
         <v>45734807</v>
       </c>
-      <c r="AD71" s="13" t="s">
-        <v>57</v>
+      <c r="AC71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD71" s="13">
+        <v>48843750</v>
       </c>
       <c r="AE71" s="13">
-        <v>48843750</v>
-      </c>
-      <c r="AF71" s="13">
         <v>50897924</v>
       </c>
+      <c r="AF71" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH71" s="13" t="s">
-        <v>57</v>
+      <c r="AH71" s="13">
+        <v>59701211</v>
       </c>
       <c r="AI71" s="13">
-        <v>59701211</v>
+        <v>51705882</v>
       </c>
       <c r="AJ71" s="13">
-        <v>51705882</v>
+        <v>66635514</v>
       </c>
       <c r="AK71" s="13">
-        <v>66635514</v>
+        <v>80226190</v>
       </c>
       <c r="AL71" s="13">
-        <v>80226190</v>
+        <v>72599109</v>
       </c>
       <c r="AM71" s="13">
-        <v>72599109</v>
+        <v>63299160</v>
       </c>
       <c r="AN71" s="13">
-        <v>63299160</v>
+        <v>68516035</v>
       </c>
       <c r="AO71" s="13">
-        <v>68516035</v>
+        <v>89041322</v>
       </c>
       <c r="AP71" s="13">
-        <v>89041322</v>
+        <v>31404891</v>
       </c>
       <c r="AQ71" s="13">
-        <v>31404891</v>
+        <v>31275000</v>
       </c>
       <c r="AR71" s="13">
-        <v>31275000</v>
+        <v>37137097</v>
       </c>
       <c r="AS71" s="13">
-        <v>37137097</v>
+        <v>82271605</v>
       </c>
       <c r="AT71" s="13">
-        <v>82271605</v>
+        <v>67827381</v>
       </c>
       <c r="AU71" s="13">
-        <v>67827381</v>
+        <v>143358974</v>
       </c>
       <c r="AV71" s="13">
-        <v>143358974</v>
+        <v>104741935</v>
       </c>
       <c r="AW71" s="13">
-        <v>104741935</v>
+        <v>88817935</v>
       </c>
       <c r="AX71" s="13">
-        <v>88817935</v>
+        <v>68484463</v>
       </c>
       <c r="AY71" s="13">
-        <v>68484463</v>
+        <v>113484496</v>
       </c>
       <c r="AZ71" s="13">
-        <v>113484496</v>
+        <v>78247596</v>
       </c>
       <c r="BA71" s="13">
-        <v>78247596</v>
+        <v>92692671</v>
       </c>
       <c r="BB71" s="13">
-        <v>92692671</v>
+        <v>82765172</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
@@ -8983,12 +8983,12 @@
       <c r="U72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W72" s="11">
+      <c r="V72" s="11">
         <v>16200068</v>
       </c>
+      <c r="W72" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X72" s="11" t="s">
         <v>57</v>
       </c>
@@ -9046,44 +9046,44 @@
       <c r="AP72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ72" s="11" t="s">
-        <v>57</v>
+      <c r="AQ72" s="11">
+        <v>36025161</v>
       </c>
       <c r="AR72" s="11">
-        <v>36025161</v>
+        <v>36280347</v>
       </c>
       <c r="AS72" s="11">
-        <v>36280347</v>
+        <v>51404877</v>
       </c>
       <c r="AT72" s="11">
-        <v>51404877</v>
+        <v>57960000</v>
       </c>
       <c r="AU72" s="11">
-        <v>57960000</v>
+        <v>57946970</v>
       </c>
       <c r="AV72" s="11">
-        <v>57946970</v>
-      </c>
-      <c r="AW72" s="11">
         <v>57973834</v>
       </c>
+      <c r="AW72" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AX72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ72" s="11">
+      <c r="AY72" s="11">
         <v>57954685</v>
       </c>
+      <c r="AZ72" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="BA72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB72" s="11" t="s">
-        <v>57</v>
+      <c r="BB72" s="11">
+        <v>82292803</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>64</v>
       </c>
@@ -9169,42 +9169,42 @@
       <c r="AD73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF73" s="13">
+      <c r="AE73" s="13">
         <v>49958333</v>
       </c>
+      <c r="AF73" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG73" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AH73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI73" s="13" t="s">
-        <v>57</v>
+      <c r="AI73" s="13">
+        <v>34100984</v>
       </c>
       <c r="AJ73" s="13">
-        <v>34100984</v>
+        <v>34108301</v>
       </c>
       <c r="AK73" s="13">
-        <v>34108301</v>
+        <v>34094850</v>
       </c>
       <c r="AL73" s="13">
-        <v>34094850</v>
+        <v>34104020</v>
       </c>
       <c r="AM73" s="13">
-        <v>34104020</v>
+        <v>34100013</v>
       </c>
       <c r="AN73" s="13">
-        <v>34100013</v>
+        <v>34087719</v>
       </c>
       <c r="AO73" s="13">
-        <v>34087719</v>
-      </c>
-      <c r="AP73" s="13">
         <v>34115385</v>
       </c>
+      <c r="AP73" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ73" s="13" t="s">
         <v>57</v>
       </c>
@@ -9223,23 +9223,23 @@
       <c r="AV73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX73" s="13">
+      <c r="AW73" s="13">
         <v>44701175</v>
       </c>
-      <c r="AY73" s="13" t="s">
-        <v>57</v>
+      <c r="AX73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY73" s="13">
+        <v>45266346</v>
       </c>
       <c r="AZ73" s="13">
-        <v>45266346</v>
-      </c>
-      <c r="BA73" s="13">
         <v>45294859</v>
       </c>
-      <c r="BB73" s="13" t="s">
-        <v>57</v>
+      <c r="BA73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB73" s="13">
+        <v>64095696</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/fejahan/product/monthly.xlsx
+++ b/database/industries/folad/fejahan/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3263,116 +3263,116 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>0</v>
+        <v>15506</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>15506</v>
+        <v>2230</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>2230</v>
+        <v>365</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>365</v>
+        <v>18820</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>18820</v>
+        <v>6824</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>6824</v>
+        <v>7308</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>7308</v>
+        <v>7869</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>7869</v>
+        <v>9041</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>9041</v>
+        <v>5260</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>5260</v>
-      </c>
-      <c r="AD11" s="13" t="n">
         <v>6843</v>
       </c>
+      <c r="AD11" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="13" t="s">
-        <v>57</v>
+      <c r="AF11" s="13" t="n">
+        <v>2437</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>2437</v>
+        <v>1577</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>1577</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>0</v>
+        <v>46957</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>46957</v>
+        <v>12803</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>12803</v>
+        <v>18793</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>18793</v>
+        <v>19482</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>19482</v>
+        <v>28431</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>28431</v>
+        <v>23352</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>23352</v>
+        <v>23252</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>23252</v>
+        <v>22022</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>22022</v>
+        <v>22635</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>22635</v>
+        <v>15846</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>15846</v>
+        <v>13840</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>13840</v>
+        <v>13706</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>13706</v>
+        <v>22522</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>22522</v>
+        <v>20662</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>20662</v>
+        <v>19947</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>19947</v>
+        <v>18443</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>18443</v>
+        <v>16926</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>16926</v>
+        <v>14582</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>14582</v>
+        <v>17199</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>17199</v>
+        <v>18949</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,116 +3422,116 @@
       <c r="Q12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>57</v>
+      <c r="R12" s="16" t="n">
+        <v>84615</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>84615</v>
+        <v>85621</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>85621</v>
+        <v>87975</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>87975</v>
+        <v>87900</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>87900</v>
+        <v>84961</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>84961</v>
+        <v>83615</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>83615</v>
+        <v>38517</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>38517</v>
+        <v>82555</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>82555</v>
+        <v>77482</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>77482</v>
+        <v>82250</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>82250</v>
+        <v>81095</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>81095</v>
+        <v>80947</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>80947</v>
+        <v>85221</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>85221</v>
+        <v>83307</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>83307</v>
+        <v>86809</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>86809</v>
+        <v>83191</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>83191</v>
+        <v>84438</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>84438</v>
+        <v>86164</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>86164</v>
+        <v>80332</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>80332</v>
+        <v>80713</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>80713</v>
+        <v>80300</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>80300</v>
+        <v>53885</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>53885</v>
+        <v>29389</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>29389</v>
+        <v>74303</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>74303</v>
+        <v>82354</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>82354</v>
+        <v>82632</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>82632</v>
+        <v>86486</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>86486</v>
+        <v>82979</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>82979</v>
+        <v>85310</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>85310</v>
+        <v>82722</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>82722</v>
+        <v>81447</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>81447</v>
+        <v>86523</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>86523</v>
+        <v>50803</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>50803</v>
+        <v>49372</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>49372</v>
+        <v>47928</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>47928</v>
+        <v>79545</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>79545</v>
+        <v>89725</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,116 +3581,116 @@
       <c r="Q13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>57</v>
+      <c r="R13" s="13" t="n">
+        <v>47484</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>47484</v>
+        <v>72491</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>72491</v>
+        <v>73407</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>73407</v>
+        <v>73712</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>73712</v>
+        <v>75881</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>75881</v>
+        <v>78146</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>78146</v>
+        <v>76776</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>76776</v>
+        <v>70133</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>70133</v>
+        <v>68958</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>68958</v>
+        <v>55399</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>55399</v>
+        <v>80522</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>80522</v>
+        <v>77868</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>77868</v>
+        <v>80830</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>80830</v>
+        <v>93247</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>93247</v>
+        <v>88113</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>88113</v>
+        <v>37949</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>37949</v>
+        <v>25456</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>25456</v>
+        <v>58288</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>58288</v>
+        <v>79559</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>79559</v>
+        <v>85544</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>85544</v>
+        <v>81082</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>81082</v>
+        <v>85588</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>85588</v>
+        <v>77102</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>77102</v>
+        <v>85472</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>85472</v>
+        <v>88046</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>88046</v>
+        <v>88227</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>88227</v>
+        <v>49199</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>49199</v>
+        <v>55778</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>55778</v>
+        <v>58075</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>58075</v>
+        <v>85562</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>85562</v>
+        <v>84346</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>84346</v>
+        <v>70319</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>70319</v>
+        <v>69304</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>69304</v>
+        <v>64521</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>64521</v>
+        <v>64560</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>64560</v>
+        <v>65175</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>65175</v>
+        <v>78333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,113 +3743,113 @@
       <c r="R14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="16" t="s">
-        <v>57</v>
+      <c r="S14" s="16" t="n">
+        <v>1392</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>1392</v>
+        <v>1031</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>1031</v>
+        <v>1329</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1329</v>
+        <v>1162</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1162</v>
+        <v>956</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>956</v>
+        <v>217</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>217</v>
+        <v>603</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>603</v>
+        <v>1354</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1354</v>
+        <v>565</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>565</v>
+        <v>914</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>914</v>
+        <v>2524</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>2524</v>
+        <v>463</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>463</v>
+        <v>931</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>931</v>
+        <v>1618</v>
       </c>
       <c r="AG14" s="16" t="n">
+        <v>834</v>
+      </c>
+      <c r="AH14" s="16" t="n">
+        <v>382</v>
+      </c>
+      <c r="AI14" s="16" t="n">
+        <v>1503</v>
+      </c>
+      <c r="AJ14" s="16" t="n">
+        <v>1217</v>
+      </c>
+      <c r="AK14" s="16" t="n">
+        <v>1513</v>
+      </c>
+      <c r="AL14" s="16" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AM14" s="16" t="n">
+        <v>1627</v>
+      </c>
+      <c r="AN14" s="16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AP14" s="16" t="n">
+        <v>2035</v>
+      </c>
+      <c r="AQ14" s="16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AR14" s="16" t="n">
+        <v>1234</v>
+      </c>
+      <c r="AS14" s="16" t="n">
+        <v>3149</v>
+      </c>
+      <c r="AT14" s="16" t="n">
+        <v>2786</v>
+      </c>
+      <c r="AU14" s="16" t="n">
+        <v>4405</v>
+      </c>
+      <c r="AV14" s="16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>1903</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>3448</v>
+      </c>
+      <c r="AY14" s="16" t="n">
         <v>1618</v>
       </c>
-      <c r="AH14" s="16" t="n">
-        <v>834</v>
-      </c>
-      <c r="AI14" s="16" t="n">
-        <v>382</v>
-      </c>
-      <c r="AJ14" s="16" t="n">
-        <v>1503</v>
-      </c>
-      <c r="AK14" s="16" t="n">
-        <v>1217</v>
-      </c>
-      <c r="AL14" s="16" t="n">
-        <v>1513</v>
-      </c>
-      <c r="AM14" s="16" t="n">
-        <v>1920</v>
-      </c>
-      <c r="AN14" s="16" t="n">
-        <v>1627</v>
-      </c>
-      <c r="AO14" s="16" t="n">
-        <v>1440</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>2190</v>
-      </c>
-      <c r="AQ14" s="16" t="n">
-        <v>2035</v>
-      </c>
-      <c r="AR14" s="16" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AS14" s="16" t="n">
-        <v>1234</v>
-      </c>
-      <c r="AT14" s="16" t="n">
-        <v>3149</v>
-      </c>
-      <c r="AU14" s="16" t="n">
-        <v>2786</v>
-      </c>
-      <c r="AV14" s="16" t="n">
-        <v>4405</v>
-      </c>
-      <c r="AW14" s="16" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>1903</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>3448</v>
-      </c>
       <c r="AZ14" s="16" t="n">
-        <v>1618</v>
+        <v>1476</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>1476</v>
+        <v>2044</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>2044</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,116 +3899,116 @@
       <c r="Q15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="13" t="s">
-        <v>57</v>
+      <c r="R15" s="13" t="n">
+        <v>10400</v>
       </c>
       <c r="S15" s="13" t="n">
-        <v>10400</v>
+        <v>24050</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>24050</v>
+        <v>38574</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>38574</v>
+        <v>23116</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>23116</v>
+        <v>29332</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>29332</v>
+        <v>29478</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>29478</v>
+        <v>38801</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>38801</v>
+        <v>32009</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>32009</v>
+        <v>8281</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>8281</v>
+        <v>15808</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>15808</v>
+        <v>29250</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>29250</v>
+        <v>11908</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>11908</v>
+        <v>34563</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>34563</v>
+        <v>12810</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>12810</v>
+        <v>12532</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>12532</v>
+        <v>12584</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>12584</v>
+        <v>29771</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>29771</v>
+        <v>32409</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>32409</v>
+        <v>14300</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>14300</v>
+        <v>33616</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>33616</v>
+        <v>30457</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>30457</v>
+        <v>13263</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>13263</v>
+        <v>29919</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>29919</v>
+        <v>4278</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>4278</v>
+        <v>20865</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>20865</v>
+        <v>40515</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>40515</v>
+        <v>32398</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>32398</v>
+        <v>28980</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>28980</v>
+        <v>33839</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>33839</v>
+        <v>33900</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>33900</v>
+        <v>34276</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>34276</v>
+        <v>13737</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>13737</v>
+        <v>17875</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>17875</v>
+        <v>26873</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>26873</v>
+        <v>28168</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>28168</v>
+        <v>26250</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>26250</v>
+        <v>32661</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,95 +4079,95 @@
       <c r="X16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="16" t="s">
-        <v>57</v>
+      <c r="Y16" s="16" t="n">
+        <v>181</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>51</v>
+        <v>6824</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>6824</v>
+        <v>101</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD16" s="16" t="n">
         <v>13854</v>
       </c>
+      <c r="AD16" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF16" s="16" t="s">
-        <v>57</v>
+      <c r="AF16" s="16" t="n">
+        <v>806</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>806</v>
+        <v>2580</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>2580</v>
+        <v>2290</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>2290</v>
+        <v>2628</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>2628</v>
+        <v>234</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>234</v>
+        <v>4805</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>4805</v>
+        <v>5304</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>5304</v>
+        <v>5061</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>5061</v>
+        <v>5381</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>5381</v>
+        <v>5440</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>5440</v>
+        <v>6142</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>6142</v>
+        <v>6934</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>6934</v>
+        <v>4163</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>4163</v>
+        <v>4695</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>4695</v>
+        <v>5554</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>6887</v>
+        <v>6745</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>6745</v>
+        <v>5301</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>5301</v>
+        <v>4833</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>4833</v>
+        <v>3283</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>3283</v>
+        <v>3727</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>3727</v>
+        <v>5311</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>5311</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,44 +4223,44 @@
       <c r="S17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>57</v>
+      <c r="T17" s="13" t="n">
+        <v>6080</v>
       </c>
       <c r="U17" s="13" t="n">
-        <v>6080</v>
+        <v>0</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>760</v>
+        <v>240</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" s="13" t="n">
-        <v>0</v>
+      <c r="AD17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF17" s="13" t="s">
-        <v>57</v>
+      <c r="AF17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG17" s="13" t="n">
         <v>0</v>
@@ -4269,64 +4269,64 @@
         <v>0</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>1230</v>
+        <v>402</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>402</v>
+        <v>1359</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>1359</v>
+        <v>780</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>780</v>
+        <v>913</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>930</v>
+        <v>771</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>717</v>
+        <v>997</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>997</v>
+        <v>405</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>463</v>
+        <v>864</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>864</v>
+        <v>991</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>991</v>
+        <v>1369</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>1369</v>
+        <v>1239</v>
       </c>
       <c r="AY17" s="13" t="n">
+        <v>819</v>
+      </c>
+      <c r="AZ17" s="13" t="n">
+        <v>985</v>
+      </c>
+      <c r="BA17" s="13" t="n">
         <v>1239</v>
       </c>
-      <c r="AZ17" s="13" t="n">
-        <v>819</v>
-      </c>
-      <c r="BA17" s="13" t="n">
-        <v>985</v>
-      </c>
       <c r="BB17" s="13" t="n">
-        <v>1239</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,110 +4382,110 @@
       <c r="S18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T18" s="16" t="s">
-        <v>57</v>
+      <c r="T18" s="16" t="n">
+        <v>9400</v>
       </c>
       <c r="U18" s="16" t="n">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="V18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>0</v>
+        <v>5031</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>5031</v>
+        <v>1614</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>1614</v>
+        <v>2246</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>2246</v>
+        <v>5168</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>5168</v>
+        <v>1819</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>1819</v>
+        <v>523</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>523</v>
+        <v>2405</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>2405</v>
+        <v>491</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>0</v>
+        <v>2398</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>2398</v>
+        <v>3466</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>3466</v>
+        <v>1487</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>1487</v>
+        <v>3500</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>3500</v>
+        <v>2568</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>2568</v>
+        <v>3149</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>3149</v>
+        <v>2858</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>2858</v>
+        <v>2807</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>2807</v>
+        <v>2274</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>2274</v>
+        <v>6566</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>6566</v>
+        <v>4123</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>4123</v>
+        <v>4472</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>4472</v>
+        <v>3144</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>3144</v>
+        <v>3531</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>3531</v>
+        <v>2895</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>2895</v>
+        <v>4511</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>4511</v>
+        <v>3725</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>3725</v>
+        <v>2839</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>2839</v>
+        <v>3608</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>3608</v>
+        <v>1255</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>1255</v>
+        <v>1546</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>1546</v>
+        <v>2075</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>2075</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,8 +4590,8 @@
       <c r="Q20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="20" t="s">
-        <v>57</v>
+      <c r="R20" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S20" s="20" t="n">
         <v>0</v>
@@ -4748,115 +4748,115 @@
         <v>0</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>142499</v>
+        <v>183554</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>183554</v>
+        <v>231973</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>231973</v>
+        <v>188287</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>188287</v>
+        <v>195201</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>195201</v>
+        <v>216046</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>216046</v>
+        <v>163639</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>163639</v>
+        <v>195725</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>195725</v>
+        <v>169923</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>169923</v>
+        <v>171946</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>171946</v>
+        <v>197665</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>197665</v>
+        <v>196349</v>
       </c>
       <c r="AD21" s="22" t="n">
-        <v>196349</v>
+        <v>201568</v>
       </c>
       <c r="AE21" s="22" t="n">
-        <v>201568</v>
+        <v>190295</v>
       </c>
       <c r="AF21" s="22" t="n">
-        <v>190295</v>
+        <v>194713</v>
       </c>
       <c r="AG21" s="22" t="n">
-        <v>194713</v>
+        <v>142181</v>
       </c>
       <c r="AH21" s="22" t="n">
-        <v>142181</v>
+        <v>143824</v>
       </c>
       <c r="AI21" s="22" t="n">
-        <v>143824</v>
+        <v>232679</v>
       </c>
       <c r="AJ21" s="22" t="n">
-        <v>232679</v>
+        <v>191415</v>
       </c>
       <c r="AK21" s="22" t="n">
-        <v>191415</v>
+        <v>229492</v>
       </c>
       <c r="AL21" s="22" t="n">
-        <v>229492</v>
+        <v>222183</v>
       </c>
       <c r="AM21" s="22" t="n">
-        <v>222183</v>
+        <v>191575</v>
       </c>
       <c r="AN21" s="22" t="n">
-        <v>191575</v>
+        <v>169787</v>
       </c>
       <c r="AO21" s="22" t="n">
-        <v>169787</v>
+        <v>202272</v>
       </c>
       <c r="AP21" s="22" t="n">
-        <v>202272</v>
+        <v>226304</v>
       </c>
       <c r="AQ21" s="22" t="n">
-        <v>226304</v>
+        <v>248428</v>
       </c>
       <c r="AR21" s="22" t="n">
-        <v>248428</v>
+        <v>192875</v>
       </c>
       <c r="AS21" s="22" t="n">
-        <v>192875</v>
+        <v>193375</v>
       </c>
       <c r="AT21" s="22" t="n">
-        <v>193375</v>
+        <v>202628</v>
       </c>
       <c r="AU21" s="22" t="n">
-        <v>202628</v>
+        <v>241373</v>
       </c>
       <c r="AV21" s="22" t="n">
-        <v>241373</v>
+        <v>233692</v>
       </c>
       <c r="AW21" s="22" t="n">
-        <v>233692</v>
+        <v>201938</v>
       </c>
       <c r="AX21" s="22" t="n">
-        <v>201938</v>
+        <v>169553</v>
       </c>
       <c r="AY21" s="22" t="n">
-        <v>169553</v>
+        <v>164667</v>
       </c>
       <c r="AZ21" s="22" t="n">
-        <v>164667</v>
+        <v>162972</v>
       </c>
       <c r="BA21" s="22" t="n">
-        <v>162972</v>
+        <v>198838</v>
       </c>
       <c r="BB21" s="22" t="n">
-        <v>198838</v>
+        <v>231505</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,50 +5340,50 @@
       <c r="Q28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="13" t="s">
-        <v>57</v>
+      <c r="R28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S28" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="13" t="n">
-        <v>0</v>
+        <v>16734</v>
       </c>
       <c r="U28" s="13" t="n">
-        <v>16734</v>
+        <v>1367</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>0</v>
+        <v>5321</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>5321</v>
+        <v>45</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" s="13" t="n">
-        <v>0</v>
+      <c r="AD28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF28" s="13" t="s">
-        <v>57</v>
+      <c r="AF28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG28" s="13" t="n">
         <v>0</v>
@@ -5392,43 +5392,43 @@
         <v>0</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>979</v>
+        <v>3298</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>3298</v>
+        <v>1709</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>1709</v>
+        <v>4635</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>4635</v>
+        <v>13855</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>13855</v>
+        <v>1698</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>1698</v>
+        <v>234</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>10</v>
+        <v>4165</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>4165</v>
+        <v>10746</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="13" t="n">
         <v>0</v>
@@ -5443,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>0</v>
+        <v>45945</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>45945</v>
+        <v>18437</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>18437</v>
+        <v>20717</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,8 +5499,8 @@
       <c r="Q29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="16" t="s">
-        <v>57</v>
+      <c r="R29" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S29" s="16" t="n">
         <v>0</v>
@@ -5658,116 +5658,116 @@
       <c r="Q30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="13" t="s">
-        <v>57</v>
+      <c r="R30" s="13" t="n">
+        <v>28500</v>
       </c>
       <c r="S30" s="13" t="n">
-        <v>28500</v>
+        <v>62000</v>
       </c>
       <c r="T30" s="13" t="n">
-        <v>62000</v>
+        <v>102460</v>
       </c>
       <c r="U30" s="13" t="n">
-        <v>102460</v>
+        <v>48128</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>48128</v>
+        <v>46858</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>46858</v>
+        <v>50032</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>50032</v>
+        <v>28155</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>28155</v>
+        <v>34477</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>34477</v>
+        <v>106460</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>106460</v>
+        <v>13951</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>13951</v>
+        <v>44207</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>44207</v>
+        <v>55143</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>55143</v>
+        <v>81976</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>81976</v>
+        <v>50999</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>50999</v>
+        <v>51305</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>51305</v>
+        <v>21565</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>21565</v>
+        <v>14772</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>14772</v>
+        <v>61533</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>61533</v>
+        <v>47160</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>47160</v>
+        <v>30965</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>30965</v>
+        <v>15781</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>15781</v>
+        <v>66759</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>66759</v>
+        <v>34502</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>34502</v>
+        <v>93641</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>93641</v>
+        <v>63421</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>63421</v>
+        <v>21216</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>21216</v>
+        <v>14403</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>14403</v>
+        <v>31908</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>31908</v>
+        <v>49863</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>49863</v>
+        <v>38955</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>38955</v>
+        <v>40419</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>40419</v>
+        <v>21694</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>21694</v>
+        <v>65047</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>65047</v>
+        <v>63626</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>63626</v>
+        <v>83164</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>83164</v>
+        <v>75642</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>75642</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,8 +5820,8 @@
       <c r="R31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S31" s="16" t="s">
-        <v>57</v>
+      <c r="S31" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T31" s="16" t="n">
         <v>0</v>
@@ -5976,116 +5976,116 @@
       <c r="Q32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="13" t="s">
-        <v>57</v>
+      <c r="R32" s="13" t="n">
+        <v>12950</v>
       </c>
       <c r="S32" s="13" t="n">
-        <v>12950</v>
+        <v>24517</v>
       </c>
       <c r="T32" s="13" t="n">
-        <v>24517</v>
+        <v>15291</v>
       </c>
       <c r="U32" s="13" t="n">
-        <v>15291</v>
+        <v>25533</v>
       </c>
       <c r="V32" s="13" t="n">
-        <v>25533</v>
+        <v>7450</v>
       </c>
       <c r="W32" s="13" t="n">
-        <v>7450</v>
+        <v>43522</v>
       </c>
       <c r="X32" s="13" t="n">
-        <v>43522</v>
+        <v>16103</v>
       </c>
       <c r="Y32" s="13" t="n">
-        <v>16103</v>
+        <v>32527</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>32527</v>
+        <v>28224</v>
       </c>
       <c r="AA32" s="13" t="n">
-        <v>28224</v>
+        <v>20614</v>
       </c>
       <c r="AB32" s="13" t="n">
-        <v>20614</v>
+        <v>13868</v>
       </c>
       <c r="AC32" s="13" t="n">
-        <v>13868</v>
+        <v>32268</v>
       </c>
       <c r="AD32" s="13" t="n">
-        <v>32268</v>
+        <v>9202</v>
       </c>
       <c r="AE32" s="13" t="n">
-        <v>9202</v>
+        <v>27886</v>
       </c>
       <c r="AF32" s="13" t="n">
-        <v>27886</v>
+        <v>8834</v>
       </c>
       <c r="AG32" s="13" t="n">
-        <v>8834</v>
+        <v>17476</v>
       </c>
       <c r="AH32" s="13" t="n">
-        <v>17476</v>
+        <v>17212</v>
       </c>
       <c r="AI32" s="13" t="n">
-        <v>17212</v>
+        <v>20827</v>
       </c>
       <c r="AJ32" s="13" t="n">
-        <v>20827</v>
+        <v>25569</v>
       </c>
       <c r="AK32" s="13" t="n">
-        <v>25569</v>
+        <v>23764</v>
       </c>
       <c r="AL32" s="13" t="n">
-        <v>23764</v>
+        <v>21953</v>
       </c>
       <c r="AM32" s="13" t="n">
-        <v>21953</v>
+        <v>18024</v>
       </c>
       <c r="AN32" s="13" t="n">
-        <v>18024</v>
+        <v>22412</v>
       </c>
       <c r="AO32" s="13" t="n">
-        <v>22412</v>
+        <v>21338</v>
       </c>
       <c r="AP32" s="13" t="n">
-        <v>21338</v>
+        <v>18446</v>
       </c>
       <c r="AQ32" s="13" t="n">
-        <v>18446</v>
+        <v>23813</v>
       </c>
       <c r="AR32" s="13" t="n">
-        <v>23813</v>
+        <v>31306</v>
       </c>
       <c r="AS32" s="13" t="n">
-        <v>31306</v>
+        <v>35090</v>
       </c>
       <c r="AT32" s="13" t="n">
-        <v>35090</v>
+        <v>30167</v>
       </c>
       <c r="AU32" s="13" t="n">
-        <v>30167</v>
+        <v>24805</v>
       </c>
       <c r="AV32" s="13" t="n">
-        <v>24805</v>
+        <v>19242</v>
       </c>
       <c r="AW32" s="13" t="n">
-        <v>19242</v>
+        <v>18012</v>
       </c>
       <c r="AX32" s="13" t="n">
-        <v>18012</v>
+        <v>30191</v>
       </c>
       <c r="AY32" s="13" t="n">
-        <v>30191</v>
+        <v>23629</v>
       </c>
       <c r="AZ32" s="13" t="n">
-        <v>23629</v>
+        <v>32288</v>
       </c>
       <c r="BA32" s="13" t="n">
-        <v>32288</v>
+        <v>35089</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>35089</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,95 +6156,95 @@
       <c r="X33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y33" s="16" t="s">
-        <v>57</v>
+      <c r="Y33" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AD33" s="16" t="n">
         <v>578</v>
       </c>
+      <c r="AD33" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF33" s="16" t="s">
-        <v>57</v>
+      <c r="AF33" s="16" t="n">
+        <v>743</v>
       </c>
       <c r="AG33" s="16" t="n">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="AH33" s="16" t="n">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="AI33" s="16" t="n">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="AJ33" s="16" t="n">
-        <v>252</v>
+        <v>449</v>
       </c>
       <c r="AK33" s="16" t="n">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="AL33" s="16" t="n">
-        <v>595</v>
+        <v>343</v>
       </c>
       <c r="AM33" s="16" t="n">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="AN33" s="16" t="n">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="AO33" s="16" t="n">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AP33" s="16" t="n">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>310</v>
+        <v>736</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>708</v>
+        <v>258</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>379</v>
+        <v>467</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>467</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,11 +6300,11 @@
       <c r="S34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T34" s="13" t="s">
-        <v>57</v>
+      <c r="T34" s="13" t="n">
+        <v>2944</v>
       </c>
       <c r="U34" s="13" t="n">
-        <v>2944</v>
+        <v>0</v>
       </c>
       <c r="V34" s="13" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
       <c r="AC34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD34" s="13" t="n">
-        <v>0</v>
+      <c r="AD34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>57</v>
+      <c r="AF34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG34" s="13" t="n">
         <v>0</v>
@@ -6364,46 +6364,46 @@
         <v>0</v>
       </c>
       <c r="AO34" s="13" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="AP34" s="13" t="n">
-        <v>1868</v>
+        <v>2076</v>
       </c>
       <c r="AQ34" s="13" t="n">
-        <v>2076</v>
+        <v>3527</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>3527</v>
+        <v>3575</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>3575</v>
+        <v>1452</v>
       </c>
       <c r="AT34" s="13" t="n">
-        <v>1452</v>
+        <v>879</v>
       </c>
       <c r="AU34" s="13" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>0</v>
+        <v>4071</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>4071</v>
+        <v>910</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>910</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6459,8 +6459,8 @@
       <c r="S35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T35" s="16" t="s">
-        <v>57</v>
+      <c r="T35" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U35" s="16" t="n">
         <v>0</v>
@@ -6487,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="16" t="n">
         <v>0</v>
@@ -6499,28 +6499,28 @@
         <v>0</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>3050</v>
+        <v>2807</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>2807</v>
+        <v>6252</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>6252</v>
+        <v>3980</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>3980</v>
+        <v>7599</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>7599</v>
+        <v>285</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="16" t="n">
         <v>0</v>
@@ -6541,25 +6541,25 @@
         <v>0</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>0</v>
+        <v>9959</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>9959</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>1040</v>
+        <v>3968</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>0</v>
+        <v>4995</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="16" t="n">
         <v>0</v>
@@ -6667,8 +6667,8 @@
       <c r="Q37" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="20" t="s">
-        <v>57</v>
+      <c r="R37" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S37" s="20" t="n">
         <v>0</v>
@@ -6881,8 +6881,8 @@
       <c r="Q39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="20" t="s">
-        <v>57</v>
+      <c r="R39" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S39" s="20" t="n">
         <v>0</v>
@@ -7039,115 +7039,115 @@
         <v>0</v>
       </c>
       <c r="R40" s="22" t="n">
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="S40" s="22" t="n">
-        <v>41450</v>
+        <v>86517</v>
       </c>
       <c r="T40" s="22" t="n">
-        <v>86517</v>
+        <v>137429</v>
       </c>
       <c r="U40" s="22" t="n">
-        <v>137429</v>
+        <v>75028</v>
       </c>
       <c r="V40" s="22" t="n">
-        <v>75028</v>
+        <v>54308</v>
       </c>
       <c r="W40" s="22" t="n">
-        <v>54308</v>
+        <v>93591</v>
       </c>
       <c r="X40" s="22" t="n">
-        <v>93591</v>
+        <v>44258</v>
       </c>
       <c r="Y40" s="22" t="n">
-        <v>44258</v>
+        <v>67004</v>
       </c>
       <c r="Z40" s="22" t="n">
-        <v>67004</v>
+        <v>140186</v>
       </c>
       <c r="AA40" s="22" t="n">
-        <v>140186</v>
+        <v>34610</v>
       </c>
       <c r="AB40" s="22" t="n">
-        <v>34610</v>
+        <v>58139</v>
       </c>
       <c r="AC40" s="22" t="n">
-        <v>58139</v>
+        <v>88085</v>
       </c>
       <c r="AD40" s="22" t="n">
-        <v>88085</v>
+        <v>91178</v>
       </c>
       <c r="AE40" s="22" t="n">
-        <v>91178</v>
+        <v>78885</v>
       </c>
       <c r="AF40" s="22" t="n">
-        <v>78885</v>
+        <v>60882</v>
       </c>
       <c r="AG40" s="22" t="n">
-        <v>60882</v>
+        <v>42125</v>
       </c>
       <c r="AH40" s="22" t="n">
-        <v>42125</v>
+        <v>35005</v>
       </c>
       <c r="AI40" s="22" t="n">
-        <v>35005</v>
+        <v>90348</v>
       </c>
       <c r="AJ40" s="22" t="n">
-        <v>90348</v>
+        <v>77158</v>
       </c>
       <c r="AK40" s="22" t="n">
-        <v>77158</v>
+        <v>63902</v>
       </c>
       <c r="AL40" s="22" t="n">
-        <v>63902</v>
+        <v>41660</v>
       </c>
       <c r="AM40" s="22" t="n">
-        <v>41660</v>
+        <v>86639</v>
       </c>
       <c r="AN40" s="22" t="n">
-        <v>86639</v>
+        <v>61917</v>
       </c>
       <c r="AO40" s="22" t="n">
-        <v>61917</v>
+        <v>131022</v>
       </c>
       <c r="AP40" s="22" t="n">
-        <v>131022</v>
+        <v>85765</v>
       </c>
       <c r="AQ40" s="22" t="n">
-        <v>85765</v>
+        <v>48871</v>
       </c>
       <c r="AR40" s="22" t="n">
-        <v>48871</v>
+        <v>49462</v>
       </c>
       <c r="AS40" s="22" t="n">
-        <v>49462</v>
+        <v>72693</v>
       </c>
       <c r="AT40" s="22" t="n">
-        <v>72693</v>
+        <v>91965</v>
       </c>
       <c r="AU40" s="22" t="n">
-        <v>91965</v>
+        <v>74455</v>
       </c>
       <c r="AV40" s="22" t="n">
-        <v>74455</v>
+        <v>60369</v>
       </c>
       <c r="AW40" s="22" t="n">
-        <v>60369</v>
+        <v>42306</v>
       </c>
       <c r="AX40" s="22" t="n">
-        <v>42306</v>
+        <v>99622</v>
       </c>
       <c r="AY40" s="22" t="n">
-        <v>99622</v>
+        <v>87678</v>
       </c>
       <c r="AZ40" s="22" t="n">
-        <v>87678</v>
+        <v>170842</v>
       </c>
       <c r="BA40" s="22" t="n">
-        <v>170842</v>
+        <v>130545</v>
       </c>
       <c r="BB40" s="22" t="n">
-        <v>130545</v>
+        <v>68185</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,50 +7631,50 @@
       <c r="Q47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R47" s="13" t="s">
-        <v>57</v>
+      <c r="R47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S47" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>0</v>
+        <v>14392</v>
       </c>
       <c r="U47" s="13" t="n">
-        <v>14392</v>
+        <v>27037</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>27037</v>
+        <v>0</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>0</v>
+        <v>17818</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>17818</v>
+        <v>88</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" s="13" t="n">
-        <v>0</v>
+      <c r="AD47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF47" s="13" t="s">
-        <v>57</v>
+      <c r="AF47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG47" s="13" t="n">
         <v>0</v>
@@ -7683,43 +7683,43 @@
         <v>0</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>0</v>
+        <v>10976</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>10976</v>
+        <v>42210</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>42210</v>
+        <v>17208</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>17208</v>
+        <v>137054</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>137054</v>
+        <v>219665</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>219665</v>
+        <v>13155</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>13155</v>
+        <v>7486</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>7486</v>
+        <v>3</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>3</v>
+        <v>29320</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>29320</v>
+        <v>75650</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>75650</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="13" t="n">
         <v>0</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>0</v>
+        <v>944172</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>944172</v>
+        <v>382795</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>382795</v>
+        <v>441249</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,8 +7790,8 @@
       <c r="Q48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R48" s="16" t="s">
-        <v>57</v>
+      <c r="R48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S48" s="16" t="n">
         <v>0</v>
@@ -7949,116 +7949,116 @@
       <c r="Q49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="13" t="s">
-        <v>57</v>
+      <c r="R49" s="13" t="n">
+        <v>1303971</v>
       </c>
       <c r="S49" s="13" t="n">
-        <v>1303971</v>
+        <v>3165612</v>
       </c>
       <c r="T49" s="13" t="n">
-        <v>3165612</v>
+        <v>11894129</v>
       </c>
       <c r="U49" s="13" t="n">
-        <v>11894129</v>
+        <v>4245269</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>4245269</v>
+        <v>4168991</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>4168991</v>
+        <v>3967770</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>3967770</v>
+        <v>2859165</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>2859165</v>
+        <v>3660946</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>3660946</v>
+        <v>10867972</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>10867972</v>
+        <v>1348054</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>1348054</v>
+        <v>5045351</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>5045351</v>
+        <v>5474269</v>
       </c>
       <c r="AD49" s="13" t="n">
-        <v>5474269</v>
+        <v>9961993</v>
       </c>
       <c r="AE49" s="13" t="n">
-        <v>9961993</v>
+        <v>6249903</v>
       </c>
       <c r="AF49" s="13" t="n">
-        <v>6249903</v>
+        <v>6251779</v>
       </c>
       <c r="AG49" s="13" t="n">
-        <v>6251779</v>
+        <v>2840550</v>
       </c>
       <c r="AH49" s="13" t="n">
-        <v>2840550</v>
+        <v>2157230</v>
       </c>
       <c r="AI49" s="13" t="n">
-        <v>2157230</v>
+        <v>8708557</v>
       </c>
       <c r="AJ49" s="13" t="n">
-        <v>8708557</v>
+        <v>6459606</v>
       </c>
       <c r="AK49" s="13" t="n">
-        <v>6459606</v>
+        <v>4146765</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>4146765</v>
+        <v>2050885</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>2050885</v>
+        <v>8639289</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>8639289</v>
+        <v>4299169</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>4299169</v>
+        <v>12385972</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>12385972</v>
+        <v>8827474</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>8827474</v>
+        <v>3166485</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>3166485</v>
+        <v>2074940</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>2074940</v>
+        <v>4485812</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>4485812</v>
+        <v>6648195</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>6648195</v>
+        <v>4732309</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>4732309</v>
+        <v>5254114</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>5254114</v>
+        <v>2902069</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>2902069</v>
+        <v>8956461</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>8956461</v>
+        <v>9374406</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>9374406</v>
+        <v>13999335</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>13999335</v>
+        <v>15548757</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>15548757</v>
+        <v>6147364</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,8 +8111,8 @@
       <c r="R50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S50" s="16" t="s">
-        <v>57</v>
+      <c r="S50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T50" s="16" t="n">
         <v>0</v>
@@ -8267,116 +8267,116 @@
       <c r="Q51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R51" s="13" t="s">
-        <v>57</v>
+      <c r="R51" s="13" t="n">
+        <v>654246</v>
       </c>
       <c r="S51" s="13" t="n">
-        <v>654246</v>
+        <v>1302124</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>1302124</v>
+        <v>688571</v>
       </c>
       <c r="U51" s="13" t="n">
-        <v>688571</v>
+        <v>1966809</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>1966809</v>
+        <v>618059</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>618059</v>
+        <v>3568433</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>3568433</v>
+        <v>1667546</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>1667546</v>
+        <v>3605296</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>3605296</v>
+        <v>2902364</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>2902364</v>
+        <v>2214369</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>2214369</v>
+        <v>1553225</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>1553225</v>
+        <v>3637914</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>3637914</v>
+        <v>1067346</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>1067346</v>
+        <v>3519609</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>3519609</v>
+        <v>1052298</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>1052298</v>
+        <v>2429680</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>2429680</v>
+        <v>2511782</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>2511782</v>
+        <v>3240571</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>3240571</v>
+        <v>3555247</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>3555247</v>
+        <v>3409874</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>3409874</v>
+        <v>3204470</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>3204470</v>
+        <v>2510284</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>2510284</v>
+        <v>3202108</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>3202108</v>
+        <v>3131634</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>3131634</v>
+        <v>2774540</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>2774540</v>
+        <v>3697408</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>3697408</v>
+        <v>5020076</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>5020076</v>
+        <v>5617313</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>5617313</v>
+        <v>4520013</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>4520013</v>
+        <v>3638292</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>3638292</v>
+        <v>2873512</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>2873512</v>
+        <v>2713536</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>2713536</v>
+        <v>4509332</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>4509332</v>
+        <v>3734989</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>3734989</v>
+        <v>5878328</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>5878328</v>
+        <v>6866442</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>6866442</v>
+        <v>3017151</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,95 +8447,95 @@
       <c r="X52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y52" s="16" t="s">
-        <v>57</v>
+      <c r="Y52" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>0</v>
+        <v>8278</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>8278</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>0</v>
+        <v>3126</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>3126</v>
-      </c>
-      <c r="AD52" s="16" t="n">
         <v>29419</v>
       </c>
+      <c r="AD52" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF52" s="16" t="s">
-        <v>57</v>
+      <c r="AF52" s="16" t="n">
+        <v>44358</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>44358</v>
+        <v>1758</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>1758</v>
+        <v>14260</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>14260</v>
+        <v>20217</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>20217</v>
+        <v>32597</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>32597</v>
+        <v>37663</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>37663</v>
+        <v>23501</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>23501</v>
+        <v>10774</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>10774</v>
+        <v>11557</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>11557</v>
+        <v>10008</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>10008</v>
+        <v>4605</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>4605</v>
+        <v>6664</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>6664</v>
+        <v>11395</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>11395</v>
+        <v>11182</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>11182</v>
+        <v>32470</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>32470</v>
+        <v>65370</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>65370</v>
+        <v>48487</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>48487</v>
+        <v>29279</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>29279</v>
+        <v>32551</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>32551</v>
+        <v>39209</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>39209</v>
+        <v>31368</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>31368</v>
+        <v>47848</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>47848</v>
+        <v>35764</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8591,11 +8591,11 @@
       <c r="S53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T53" s="13" t="s">
-        <v>57</v>
+      <c r="T53" s="13" t="n">
+        <v>47693</v>
       </c>
       <c r="U53" s="13" t="n">
-        <v>47693</v>
+        <v>0</v>
       </c>
       <c r="V53" s="13" t="n">
         <v>0</v>
@@ -8621,14 +8621,14 @@
       <c r="AC53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD53" s="13" t="n">
-        <v>0</v>
+      <c r="AD53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF53" s="13" t="s">
-        <v>57</v>
+      <c r="AF53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG53" s="13" t="n">
         <v>0</v>
@@ -8655,46 +8655,46 @@
         <v>0</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>0</v>
+        <v>67295</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>67295</v>
+        <v>75318</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>75318</v>
+        <v>181305</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>181305</v>
+        <v>207207</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>207207</v>
+        <v>84139</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>84139</v>
+        <v>50959</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>50959</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>0</v>
+        <v>75457</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>75457</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>0</v>
+        <v>335014</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>335014</v>
+        <v>74915</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>74915</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8750,8 +8750,8 @@
       <c r="S54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T54" s="16" t="s">
-        <v>57</v>
+      <c r="T54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U54" s="16" t="n">
         <v>0</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="16" t="n">
         <v>0</v>
@@ -8790,28 +8790,28 @@
         <v>0</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>0</v>
+        <v>104008</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>104008</v>
+        <v>95742</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>95742</v>
+        <v>213161</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>213161</v>
+        <v>135734</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>135734</v>
+        <v>259126</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>259126</v>
+        <v>9715</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>9715</v>
+        <v>887</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="16" t="n">
         <v>0</v>
@@ -8832,25 +8832,25 @@
         <v>0</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>0</v>
+        <v>445179</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>445179</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>0</v>
+        <v>47077</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>47077</v>
+        <v>179730</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>179730</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>0</v>
+        <v>320158</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>320158</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="16" t="n">
         <v>0</v>
@@ -8960,8 +8960,8 @@
       <c r="Q56" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R56" s="20" t="s">
-        <v>57</v>
+      <c r="R56" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S56" s="23" t="n">
         <v>0</v>
@@ -9176,8 +9176,8 @@
       <c r="Q58" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R58" s="20" t="s">
-        <v>57</v>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S58" s="23" t="n">
         <v>0</v>
@@ -9392,8 +9392,8 @@
       <c r="Q60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R60" s="13" t="s">
-        <v>57</v>
+      <c r="R60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S60" s="13" t="n">
         <v>0</v>
@@ -9550,115 +9550,115 @@
         <v>0</v>
       </c>
       <c r="R61" s="22" t="n">
-        <v>0</v>
+        <v>1958217</v>
       </c>
       <c r="S61" s="22" t="n">
-        <v>1958217</v>
+        <v>4467736</v>
       </c>
       <c r="T61" s="22" t="n">
-        <v>4467736</v>
+        <v>12644785</v>
       </c>
       <c r="U61" s="22" t="n">
-        <v>12644785</v>
+        <v>6239115</v>
       </c>
       <c r="V61" s="22" t="n">
-        <v>6239115</v>
+        <v>4787050</v>
       </c>
       <c r="W61" s="22" t="n">
-        <v>4787050</v>
+        <v>7537315</v>
       </c>
       <c r="X61" s="22" t="n">
-        <v>7537315</v>
+        <v>4526711</v>
       </c>
       <c r="Y61" s="22" t="n">
-        <v>4526711</v>
+        <v>7266242</v>
       </c>
       <c r="Z61" s="22" t="n">
-        <v>7266242</v>
+        <v>13796432</v>
       </c>
       <c r="AA61" s="22" t="n">
-        <v>13796432</v>
+        <v>3562511</v>
       </c>
       <c r="AB61" s="22" t="n">
-        <v>3562511</v>
+        <v>6601702</v>
       </c>
       <c r="AC61" s="22" t="n">
-        <v>6601702</v>
+        <v>9146398</v>
       </c>
       <c r="AD61" s="22" t="n">
-        <v>9146398</v>
+        <v>11029339</v>
       </c>
       <c r="AE61" s="22" t="n">
-        <v>11029339</v>
+        <v>9769512</v>
       </c>
       <c r="AF61" s="22" t="n">
-        <v>9769512</v>
+        <v>7348435</v>
       </c>
       <c r="AG61" s="22" t="n">
-        <v>7348435</v>
+        <v>5375996</v>
       </c>
       <c r="AH61" s="22" t="n">
-        <v>5375996</v>
+        <v>4779014</v>
       </c>
       <c r="AI61" s="22" t="n">
-        <v>4779014</v>
+        <v>12183248</v>
       </c>
       <c r="AJ61" s="22" t="n">
-        <v>12183248</v>
+        <v>10183184</v>
       </c>
       <c r="AK61" s="22" t="n">
-        <v>10183184</v>
+        <v>7864404</v>
       </c>
       <c r="AL61" s="22" t="n">
-        <v>7864404</v>
+        <v>5330781</v>
       </c>
       <c r="AM61" s="22" t="n">
-        <v>5330781</v>
+        <v>11178442</v>
       </c>
       <c r="AN61" s="22" t="n">
-        <v>11178442</v>
+        <v>7649888</v>
       </c>
       <c r="AO61" s="22" t="n">
-        <v>7649888</v>
+        <v>15814574</v>
       </c>
       <c r="AP61" s="22" t="n">
-        <v>15814574</v>
+        <v>11695092</v>
       </c>
       <c r="AQ61" s="22" t="n">
-        <v>11695092</v>
+        <v>7059348</v>
       </c>
       <c r="AR61" s="22" t="n">
-        <v>7059348</v>
+        <v>7313621</v>
       </c>
       <c r="AS61" s="22" t="n">
-        <v>7313621</v>
+        <v>10227766</v>
       </c>
       <c r="AT61" s="22" t="n">
-        <v>10227766</v>
+        <v>11327287</v>
       </c>
       <c r="AU61" s="22" t="n">
-        <v>11327287</v>
+        <v>8881150</v>
       </c>
       <c r="AV61" s="22" t="n">
-        <v>8881150</v>
+        <v>8176113</v>
       </c>
       <c r="AW61" s="22" t="n">
-        <v>8176113</v>
+        <v>5767418</v>
       </c>
       <c r="AX61" s="22" t="n">
-        <v>5767418</v>
+        <v>13678074</v>
       </c>
       <c r="AY61" s="22" t="n">
-        <v>13678074</v>
+        <v>13148604</v>
       </c>
       <c r="AZ61" s="22" t="n">
-        <v>13148604</v>
+        <v>21508375</v>
       </c>
       <c r="BA61" s="22" t="n">
-        <v>21508375</v>
+        <v>22920757</v>
       </c>
       <c r="BB61" s="22" t="n">
-        <v>22920757</v>
+        <v>9643055</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10148,33 +10148,33 @@
       <c r="S68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T68" s="13" t="s">
-        <v>57</v>
+      <c r="T68" s="13" t="n">
+        <v>860045</v>
       </c>
       <c r="U68" s="13" t="n">
-        <v>860045</v>
-      </c>
-      <c r="V68" s="13" t="n">
         <v>19778347</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X68" s="13" t="n">
+      <c r="V68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W68" s="13" t="n">
         <v>30054054</v>
       </c>
+      <c r="X68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z68" s="13" t="s">
-        <v>57</v>
+      <c r="Z68" s="13" t="n">
+        <v>3348619</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>3348619</v>
-      </c>
-      <c r="AB68" s="13" t="n">
         <v>1955556</v>
       </c>
+      <c r="AB68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AC68" s="13" t="s">
         <v>57</v>
       </c>
@@ -10193,45 +10193,45 @@
       <c r="AH68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ68" s="13" t="n">
+      <c r="AI68" s="13" t="n">
         <v>500000</v>
       </c>
-      <c r="AK68" s="13" t="s">
-        <v>57</v>
+      <c r="AJ68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK68" s="13" t="n">
+        <v>11211440</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>11211440</v>
+        <v>12798666</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>12798666</v>
+        <v>10069046</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>10069046</v>
+        <v>29569364</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>29569364</v>
+        <v>15854565</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>15854565</v>
+        <v>7747350</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>7747350</v>
+        <v>31991453</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>31991453</v>
+        <v>300000</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>300000</v>
+        <v>7039616</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>7039616</v>
-      </c>
-      <c r="AU68" s="13" t="n">
         <v>7039829</v>
       </c>
+      <c r="AU68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV68" s="13" t="s">
         <v>57</v>
       </c>
@@ -10244,14 +10244,14 @@
       <c r="AY68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ68" s="13" t="s">
-        <v>57</v>
+      <c r="AZ68" s="13" t="n">
+        <v>20550049</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>20550049</v>
+        <v>20762326</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>20762326</v>
+        <v>21298885</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,116 +10301,116 @@
       <c r="Q69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R69" s="16" t="s">
-        <v>57</v>
+      <c r="R69" s="16" t="n">
+        <v>45753368</v>
       </c>
       <c r="S69" s="16" t="n">
-        <v>45753368</v>
+        <v>51058258</v>
       </c>
       <c r="T69" s="16" t="n">
-        <v>51058258</v>
+        <v>116085585</v>
       </c>
       <c r="U69" s="16" t="n">
-        <v>116085585</v>
+        <v>88207883</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>88207883</v>
+        <v>88970741</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>88970741</v>
+        <v>79304645</v>
       </c>
       <c r="X69" s="16" t="n">
-        <v>79304645</v>
+        <v>101550879</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>101550879</v>
+        <v>106185167</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>106185167</v>
+        <v>102085027</v>
       </c>
       <c r="AA69" s="16" t="n">
-        <v>102085027</v>
+        <v>96627769</v>
       </c>
       <c r="AB69" s="16" t="n">
-        <v>96627769</v>
+        <v>114130138</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>114130138</v>
+        <v>99274051</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>99274051</v>
+        <v>121523287</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>121523287</v>
+        <v>122549521</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>122549521</v>
+        <v>121855160</v>
       </c>
       <c r="AG69" s="16" t="n">
-        <v>121855160</v>
+        <v>131720380</v>
       </c>
       <c r="AH69" s="16" t="n">
-        <v>131720380</v>
+        <v>146035066</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>146035066</v>
+        <v>141526612</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>141526612</v>
+        <v>136972137</v>
       </c>
       <c r="AK69" s="16" t="n">
-        <v>136972137</v>
+        <v>133917810</v>
       </c>
       <c r="AL69" s="16" t="n">
-        <v>133917810</v>
+        <v>129959128</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>129959128</v>
+        <v>129410102</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>129410102</v>
+        <v>124606371</v>
       </c>
       <c r="AO69" s="16" t="n">
-        <v>124606371</v>
+        <v>132270822</v>
       </c>
       <c r="AP69" s="16" t="n">
-        <v>132270822</v>
+        <v>139188502</v>
       </c>
       <c r="AQ69" s="16" t="n">
-        <v>139188502</v>
+        <v>149249859</v>
       </c>
       <c r="AR69" s="16" t="n">
-        <v>149249859</v>
+        <v>144063042</v>
       </c>
       <c r="AS69" s="16" t="n">
-        <v>144063042</v>
+        <v>140585809</v>
       </c>
       <c r="AT69" s="16" t="n">
-        <v>140585809</v>
+        <v>133329222</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>133329222</v>
+        <v>121481427</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>121481427</v>
+        <v>129991192</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>129991192</v>
+        <v>133772887</v>
       </c>
       <c r="AX69" s="16" t="n">
-        <v>133772887</v>
+        <v>137692146</v>
       </c>
       <c r="AY69" s="16" t="n">
-        <v>137692146</v>
+        <v>147336089</v>
       </c>
       <c r="AZ69" s="16" t="n">
-        <v>147336089</v>
+        <v>168334075</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>168334075</v>
+        <v>205557190</v>
       </c>
       <c r="BB69" s="16" t="n">
-        <v>205557190</v>
+        <v>190917855</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10460,116 +10460,116 @@
       <c r="Q70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R70" s="13" t="s">
-        <v>57</v>
+      <c r="R70" s="13" t="n">
+        <v>50520927</v>
       </c>
       <c r="S70" s="13" t="n">
-        <v>50520927</v>
+        <v>53111066</v>
       </c>
       <c r="T70" s="13" t="n">
-        <v>53111066</v>
+        <v>45031129</v>
       </c>
       <c r="U70" s="13" t="n">
-        <v>45031129</v>
+        <v>77030079</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>77030079</v>
+        <v>82960940</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>82960940</v>
+        <v>81991476</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>81991476</v>
+        <v>103554990</v>
       </c>
       <c r="Y70" s="13" t="n">
-        <v>103554990</v>
+        <v>110840102</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>110840102</v>
+        <v>102833192</v>
       </c>
       <c r="AA70" s="13" t="n">
-        <v>102833192</v>
+        <v>107420636</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>107420636</v>
+        <v>112000649</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>112000649</v>
+        <v>112740610</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>112740610</v>
+        <v>115990654</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>115990654</v>
+        <v>126214194</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>126214194</v>
+        <v>119119085</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>119119085</v>
+        <v>139029526</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>139029526</v>
+        <v>145932024</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>145932024</v>
+        <v>155594709</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>155594709</v>
+        <v>139045211</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>139045211</v>
+        <v>143489059</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>143489059</v>
+        <v>145969571</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>145969571</v>
+        <v>139274523</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>139274523</v>
+        <v>142874710</v>
       </c>
       <c r="AO70" s="13" t="n">
-        <v>142874710</v>
+        <v>146763239</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>146763239</v>
+        <v>150414182</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>150414182</v>
+        <v>155268467</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>155268467</v>
+        <v>160355076</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>160355076</v>
+        <v>160083015</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>160083015</v>
+        <v>149833029</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>149833029</v>
+        <v>146675751</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>146675751</v>
+        <v>149335412</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>149335412</v>
+        <v>150651566</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>150651566</v>
+        <v>149360140</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>149360140</v>
+        <v>158068010</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>158068010</v>
+        <v>182059217</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>182059217</v>
+        <v>195686454</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>195686454</v>
+        <v>207236143</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10643,92 +10643,92 @@
       <c r="Y71" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z71" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA71" s="16" t="n">
+      <c r="Z71" s="16" t="n">
         <v>45734807</v>
       </c>
-      <c r="AB71" s="16" t="s">
-        <v>57</v>
+      <c r="AA71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB71" s="16" t="n">
+        <v>48843750</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>48843750</v>
-      </c>
-      <c r="AD71" s="16" t="n">
         <v>50897924</v>
       </c>
+      <c r="AD71" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE71" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF71" s="16" t="s">
-        <v>57</v>
+      <c r="AF71" s="16" t="n">
+        <v>59701211</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>59701211</v>
+        <v>51705882</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>51705882</v>
+        <v>66635514</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>66635514</v>
+        <v>80226190</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>80226190</v>
+        <v>72599109</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>72599109</v>
+        <v>63299160</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>63299160</v>
+        <v>68516035</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>68516035</v>
+        <v>89041322</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>89041322</v>
+        <v>31404891</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>31404891</v>
+        <v>31275000</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>31275000</v>
+        <v>37137097</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>37137097</v>
+        <v>82271605</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>82271605</v>
+        <v>67827381</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>67827381</v>
+        <v>143358974</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>143358974</v>
+        <v>104741935</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>104741935</v>
+        <v>88817935</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>88817935</v>
+        <v>68484463</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>68484463</v>
+        <v>113484496</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>113484496</v>
+        <v>78247596</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>78247596</v>
+        <v>92692671</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>92692671</v>
+        <v>82765172</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>82765172</v>
+        <v>102458244</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>102458244</v>
+        <v>51756874</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10784,12 +10784,12 @@
       <c r="S72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U72" s="13" t="n">
+      <c r="T72" s="13" t="n">
         <v>16200068</v>
       </c>
+      <c r="U72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V72" s="13" t="s">
         <v>57</v>
       </c>
@@ -10847,47 +10847,47 @@
       <c r="AN72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO72" s="13" t="s">
-        <v>57</v>
+      <c r="AO72" s="13" t="n">
+        <v>36025161</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>36025161</v>
+        <v>36280347</v>
       </c>
       <c r="AQ72" s="13" t="n">
-        <v>36280347</v>
+        <v>51404877</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>51404877</v>
+        <v>57960000</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>57960000</v>
+        <v>57946970</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>57946970</v>
-      </c>
-      <c r="AU72" s="13" t="n">
         <v>57973834</v>
       </c>
+      <c r="AU72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW72" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX72" s="13" t="n">
+      <c r="AW72" s="13" t="n">
         <v>57954685</v>
       </c>
+      <c r="AX72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AY72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ72" s="13" t="s">
-        <v>57</v>
+      <c r="AZ72" s="13" t="n">
+        <v>82292803</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>82292803</v>
+        <v>82324176</v>
       </c>
       <c r="BB72" s="13" t="n">
-        <v>82324176</v>
+        <v>80368421</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10970,42 +10970,42 @@
       <c r="AB73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AC73" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD73" s="16" t="n">
+      <c r="AC73" s="16" t="n">
         <v>49958333</v>
       </c>
+      <c r="AD73" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE73" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AF73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG73" s="16" t="s">
-        <v>57</v>
+      <c r="AG73" s="16" t="n">
+        <v>34100984</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>34100984</v>
+        <v>34108301</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>34108301</v>
+        <v>34094850</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>34094850</v>
+        <v>34104020</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>34104020</v>
+        <v>34100013</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>34100013</v>
+        <v>34087719</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>34087719</v>
-      </c>
-      <c r="AN73" s="16" t="n">
         <v>34115385</v>
       </c>
+      <c r="AN73" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AO73" s="16" t="s">
         <v>57</v>
       </c>
@@ -11024,26 +11024,26 @@
       <c r="AT73" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AU73" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV73" s="16" t="n">
+      <c r="AU73" s="16" t="n">
         <v>44701175</v>
       </c>
-      <c r="AW73" s="16" t="s">
-        <v>57</v>
+      <c r="AV73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW73" s="16" t="n">
+        <v>45266346</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>45266346</v>
-      </c>
-      <c r="AY73" s="16" t="n">
         <v>45294859</v>
       </c>
-      <c r="AZ73" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA73" s="16" t="n">
+      <c r="AY73" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ73" s="16" t="n">
         <v>64095696</v>
+      </c>
+      <c r="BA73" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="BB73" s="16" t="s">
         <v>57</v>
